--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KYJ\Documents\GitHub\Paper_Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B898A375-E0D9-40DE-B6F7-914D46EAE663}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{28383780-1060-42BF-97A0-97ECFF127FD3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20180824134843" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="2017" sheetId="4" r:id="rId5"/>
     <sheet name="2018" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="40">
   <si>
     <t>일시</t>
   </si>
@@ -111,12 +111,69 @@
     <t>대구</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>서울</t>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천</t>
+  </si>
+  <si>
+    <t>인천</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산</t>
+  </si>
+  <si>
+    <t>부산</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구</t>
+  </si>
+  <si>
+    <t>대구</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전</t>
+  </si>
+  <si>
+    <t>대전</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주</t>
+  </si>
+  <si>
+    <t>광주</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>계</t>
+  </si>
+  <si>
+    <t>계</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인구수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가중치</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +345,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -762,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,6 +880,21 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF1176"/>
+  <dimension ref="A1:AH1176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J71" workbookViewId="0">
-      <selection activeCell="Q85" sqref="Q85"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7:AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1183,9 +1263,10 @@
     <col min="1" max="1" width="11.09765625" customWidth="1"/>
     <col min="21" max="21" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1225,8 +1306,29 @@
       <c r="Z1" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AA1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>42917</v>
       </c>
@@ -1289,19 +1391,19 @@
         <v>25.376636962233245</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:V17" si="0">(C2*$AA$4+F2*$AB$4+I2*$AC$4+L2*$AD$4+O2*$AE$4+R2*$AF$4)</f>
+        <f>(C2*$AA$4+F2*$AB$4+I2*$AC$4+L2*$AD$4+O2*$AE$4+R2*$AF$4)</f>
         <v>2.0267782673702173</v>
       </c>
       <c r="V2">
-        <f t="shared" si="0"/>
+        <f>(D2*$AA$4+G2*$AB$4+J2*$AC$4+M2*$AD$4+P2*$AE$4+S2*$AF$4)</f>
         <v>74.379982774327743</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:W65" si="1">T2-0.4*(T2-10)*(1-V2/100)</f>
+        <f t="shared" ref="W2:W65" si="0">T2-0.4*(T2-10)*(1-V2/100)</f>
         <v>23.800838146851948</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="X2:X65" si="2">1.8*T2-0.55*(1-V2/100)*(1.8*T2-26)+32</f>
+        <f t="shared" ref="X2:X65" si="1">1.8*T2-0.55*(1-V2/100)*(1.8*T2-26)+32</f>
         <v>74.905125221880709</v>
       </c>
       <c r="Y2">
@@ -1328,8 +1430,11 @@
       <c r="AF2" s="5">
         <v>2468824</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG2">
+        <v>21638633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>42918</v>
       </c>
@@ -1388,23 +1493,23 @@
         <v>79.900000000000006</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:V66" si="3">(B3*$AA$4+E3*$AB$4+H3*$AC$4+K3*$AD$4+N3*$AE$4+Q3*$AF$4)</f>
+        <f>(B3*$AA$4+E3*$AB$4+H3*$AC$4+K3*$AD$4+N3*$AE$4+Q3*$AF$4)</f>
         <v>24.519417913321973</v>
       </c>
       <c r="U3">
+        <f>(C3*$AA$4+F3*$AB$4+I3*$AC$4+L3*$AD$4+O3*$AE$4+R3*$AF$4)</f>
+        <v>2.2991846712313109</v>
+      </c>
+      <c r="V3">
+        <f>(D3*$AA$4+G3*$AB$4+J3*$AC$4+M3*$AD$4+P3*$AE$4+S3*$AF$4)</f>
+        <v>81.310240425076756</v>
+      </c>
+      <c r="W3">
         <f t="shared" si="0"/>
-        <v>2.2991846712313109</v>
-      </c>
-      <c r="V3">
-        <f t="shared" si="0"/>
-        <v>81.310240425076756</v>
-      </c>
-      <c r="W3">
+        <v>23.433960193450687</v>
+      </c>
+      <c r="X3">
         <f t="shared" si="1"/>
-        <v>23.433960193450687</v>
-      </c>
-      <c r="X3">
-        <f t="shared" si="2"/>
         <v>74.270793808594746</v>
       </c>
       <c r="Y3">
@@ -1418,7 +1523,7 @@
         <v>21638633</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>42919</v>
       </c>
@@ -1477,23 +1582,23 @@
         <v>89.5</v>
       </c>
       <c r="T4">
-        <f t="shared" si="3"/>
+        <f>(B4*$AA$4+E4*$AB$4+H4*$AC$4+K4*$AD$4+N4*$AE$4+Q4*$AF$4)</f>
         <v>22.031194891100562</v>
       </c>
       <c r="U4">
+        <f>(C4*$AA$4+F4*$AB$4+I4*$AC$4+L4*$AD$4+O4*$AE$4+R4*$AF$4)</f>
+        <v>2.6606446026419506</v>
+      </c>
+      <c r="V4">
+        <f>(D4*$AA$4+G4*$AB$4+J4*$AC$4+M4*$AD$4+P4*$AE$4+S4*$AF$4)</f>
+        <v>90.071967605347339</v>
+      </c>
+      <c r="W4">
         <f t="shared" si="0"/>
-        <v>2.6606446026419506</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="0"/>
-        <v>90.071967605347339</v>
-      </c>
-      <c r="W4">
+        <v>21.553410520599659</v>
+      </c>
+      <c r="X4">
         <f t="shared" si="1"/>
-        <v>21.553410520599659</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="2"/>
         <v>70.910467912355983</v>
       </c>
       <c r="Y4">
@@ -1503,31 +1608,31 @@
         <v>66535</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4:AF4" si="4">AA2/$AA$3</f>
+        <f>AA2/$AA$3</f>
         <v>0.45319581879317422</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="4"/>
+        <f>AB2/$AA$3</f>
         <v>0.13650774519813705</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="4"/>
+        <f>AC2/$AA$3</f>
         <v>6.9090732302729108E-2</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="4"/>
+        <f>AD2/$AA$3</f>
         <v>6.7527509709139205E-2</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="4"/>
+        <f>AE2/$AA$3</f>
         <v>0.1595848499302151</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="4"/>
+        <f>AF2/$AA$3</f>
         <v>0.11409334406660532</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>42920</v>
       </c>
@@ -1586,23 +1691,23 @@
         <v>79</v>
       </c>
       <c r="T5">
-        <f t="shared" si="3"/>
+        <f>(B5*$AA$4+E5*$AB$4+H5*$AC$4+K5*$AD$4+N5*$AE$4+Q5*$AF$4)</f>
         <v>25.227097224672185</v>
       </c>
       <c r="U5">
+        <f>(C5*$AA$4+F5*$AB$4+I5*$AC$4+L5*$AD$4+O5*$AE$4+R5*$AF$4)</f>
+        <v>2.2308080598252209</v>
+      </c>
+      <c r="V5">
+        <f>(D5*$AA$4+G5*$AB$4+J5*$AC$4+M5*$AD$4+P5*$AE$4+S5*$AF$4)</f>
+        <v>72.541198152397158</v>
+      </c>
+      <c r="W5">
         <f t="shared" si="0"/>
-        <v>2.2308080598252209</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="0"/>
-        <v>72.541198152397158</v>
-      </c>
-      <c r="W5">
+        <v>23.55462584304636</v>
+      </c>
+      <c r="X5">
         <f t="shared" si="1"/>
-        <v>23.55462584304636</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="2"/>
         <v>74.477595616180537</v>
       </c>
       <c r="Y5">
@@ -1612,7 +1717,7 @@
         <v>68944</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>42921</v>
       </c>
@@ -1671,23 +1776,23 @@
         <v>77.400000000000006</v>
       </c>
       <c r="T6">
-        <f t="shared" si="3"/>
+        <f>(B6*$AA$4+E6*$AB$4+H6*$AC$4+K6*$AD$4+N6*$AE$4+Q6*$AF$4)</f>
         <v>24.511746130173751</v>
       </c>
       <c r="U6">
+        <f>(C6*$AA$4+F6*$AB$4+I6*$AC$4+L6*$AD$4+O6*$AE$4+R6*$AF$4)</f>
+        <v>2.0385085046731</v>
+      </c>
+      <c r="V6">
+        <f>(D6*$AA$4+G6*$AB$4+J6*$AC$4+M6*$AD$4+P6*$AE$4+S6*$AF$4)</f>
+        <v>75.928590424358134</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="0"/>
-        <v>2.0385085046731</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="0"/>
-        <v>75.928590424358134</v>
-      </c>
-      <c r="W6">
+        <v>23.114473391145157</v>
+      </c>
+      <c r="X6">
         <f t="shared" si="1"/>
-        <v>23.114473391145157</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="2"/>
         <v>73.722035026545228</v>
       </c>
       <c r="Y6">
@@ -1696,8 +1801,15 @@
       <c r="Z6" s="16">
         <v>61356</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+    </row>
+    <row r="7" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>42922</v>
       </c>
@@ -1756,23 +1868,23 @@
         <v>90.8</v>
       </c>
       <c r="T7">
-        <f t="shared" si="3"/>
+        <f>(B7*$AA$4+E7*$AB$4+H7*$AC$4+K7*$AD$4+N7*$AE$4+Q7*$AF$4)</f>
         <v>23.645631311367961</v>
       </c>
       <c r="U7">
+        <f>(C7*$AA$4+F7*$AB$4+I7*$AC$4+L7*$AD$4+O7*$AE$4+R7*$AF$4)</f>
+        <v>2.2723817257772243</v>
+      </c>
+      <c r="V7">
+        <f>(D7*$AA$4+G7*$AB$4+J7*$AC$4+M7*$AD$4+P7*$AE$4+S7*$AF$4)</f>
+        <v>77.265974320096831</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="0"/>
-        <v>2.2723817257772243</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="0"/>
-        <v>77.265974320096831</v>
-      </c>
-      <c r="W7">
+        <v>22.40475078076344</v>
+      </c>
+      <c r="X7">
         <f t="shared" si="1"/>
-        <v>22.40475078076344</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="2"/>
         <v>72.491254177131879</v>
       </c>
       <c r="Y7">
@@ -1781,8 +1893,30 @@
       <c r="Z7" s="16">
         <v>54855</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH7" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>42923</v>
       </c>
@@ -1841,23 +1975,23 @@
         <v>85.3</v>
       </c>
       <c r="T8">
-        <f t="shared" si="3"/>
+        <f>(B8*$AA$4+E8*$AB$4+H8*$AC$4+K8*$AD$4+N8*$AE$4+Q8*$AF$4)</f>
         <v>25.048316624252557</v>
       </c>
       <c r="U8">
+        <f>(C8*$AA$4+F8*$AB$4+I8*$AC$4+L8*$AD$4+O8*$AE$4+R8*$AF$4)</f>
+        <v>2.2110507026945738</v>
+      </c>
+      <c r="V8">
+        <f>(D8*$AA$4+G8*$AB$4+J8*$AC$4+M8*$AD$4+P8*$AE$4+S8*$AF$4)</f>
+        <v>75.319460679424623</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="0"/>
-        <v>2.2110507026945738</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="0"/>
-        <v>75.319460679424623</v>
-      </c>
-      <c r="W8">
+        <v>23.562714343639222</v>
+      </c>
+      <c r="X8">
         <f t="shared" si="1"/>
-        <v>23.562714343639222</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="2"/>
         <v>74.496048009241917</v>
       </c>
       <c r="Y8">
@@ -1866,8 +2000,32 @@
       <c r="Z8" s="16">
         <v>69831</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AA8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>9806538</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>2953841</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>1495029</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>1461203</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>3453198</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>2468824</v>
+      </c>
+      <c r="AH8" s="19">
+        <v>21638633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>42924</v>
       </c>
@@ -1926,23 +2084,23 @@
         <v>90</v>
       </c>
       <c r="T9">
-        <f t="shared" si="3"/>
+        <f>(B9*$AA$4+E9*$AB$4+H9*$AC$4+K9*$AD$4+N9*$AE$4+Q9*$AF$4)</f>
         <v>25.348970801436487</v>
       </c>
       <c r="U9">
+        <f>(C9*$AA$4+F9*$AB$4+I9*$AC$4+L9*$AD$4+O9*$AE$4+R9*$AF$4)</f>
+        <v>1.7173025856115771</v>
+      </c>
+      <c r="V9">
+        <f>(D9*$AA$4+G9*$AB$4+J9*$AC$4+M9*$AD$4+P9*$AE$4+S9*$AF$4)</f>
+        <v>81.876299967747499</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="0"/>
-        <v>1.7173025856115771</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="0"/>
-        <v>81.876299967747499</v>
-      </c>
-      <c r="W9">
+        <v>24.236250231000337</v>
+      </c>
+      <c r="X9">
         <f t="shared" si="1"/>
-        <v>24.236250231000337</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="2"/>
         <v>75.671606832175314</v>
       </c>
       <c r="Y9">
@@ -1951,8 +2109,33 @@
       <c r="Z9" s="16">
         <v>70523</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AA9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>0.45319581879317422</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>0.13650774519813705</v>
+      </c>
+      <c r="AD9" s="13">
+        <v>6.9090732302729108E-2</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>6.7527509709139205E-2</v>
+      </c>
+      <c r="AF9" s="13">
+        <v>0.1595848499302151</v>
+      </c>
+      <c r="AG9" s="13">
+        <v>0.11409334406660532</v>
+      </c>
+      <c r="AH9" s="21">
+        <f>SUM(AB9:AG9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>42925</v>
       </c>
@@ -2011,23 +2194,23 @@
         <v>85.6</v>
       </c>
       <c r="T10">
-        <f t="shared" si="3"/>
+        <f>(B10*$AA$4+E10*$AB$4+H10*$AC$4+K10*$AD$4+N10*$AE$4+Q10*$AF$4)</f>
         <v>26.903070803964379</v>
       </c>
       <c r="U10">
+        <f>(C10*$AA$4+F10*$AB$4+I10*$AC$4+L10*$AD$4+O10*$AE$4+R10*$AF$4)</f>
+        <v>2.5537147286522215</v>
+      </c>
+      <c r="V10">
+        <f>(D10*$AA$4+G10*$AB$4+J10*$AC$4+M10*$AD$4+P10*$AE$4+S10*$AF$4)</f>
+        <v>83.653256067515912</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="0"/>
-        <v>2.5537147286522215</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="0"/>
-        <v>83.653256067515912</v>
-      </c>
-      <c r="W10">
+        <v>25.797830123544166</v>
+      </c>
+      <c r="X10">
         <f t="shared" si="1"/>
-        <v>25.797830123544166</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="2"/>
         <v>78.409313496125151</v>
       </c>
       <c r="Y10">
@@ -2037,7 +2220,7 @@
         <v>72676</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>42926</v>
       </c>
@@ -2096,23 +2279,23 @@
         <v>66.599999999999994</v>
       </c>
       <c r="T11">
-        <f t="shared" si="3"/>
+        <f>(B11*$AA$4+E11*$AB$4+H11*$AC$4+K11*$AD$4+N11*$AE$4+Q11*$AF$4)</f>
         <v>28.019379694641525</v>
       </c>
       <c r="U11">
+        <f>(C11*$AA$4+F11*$AB$4+I11*$AC$4+L11*$AD$4+O11*$AE$4+R11*$AF$4)</f>
+        <v>2.7996350092910212</v>
+      </c>
+      <c r="V11">
+        <f>(D11*$AA$4+G11*$AB$4+J11*$AC$4+M11*$AD$4+P11*$AE$4+S11*$AF$4)</f>
+        <v>67.724153665344758</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="0"/>
-        <v>2.7996350092910212</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="0"/>
-        <v>67.724153665344758</v>
-      </c>
-      <c r="W11">
+        <v>25.693016774361297</v>
+      </c>
+      <c r="X11">
         <f t="shared" si="1"/>
-        <v>25.693016774361297</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="2"/>
         <v>78.097272461386012</v>
       </c>
       <c r="Y11">
@@ -2122,7 +2305,7 @@
         <v>73566</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>42927</v>
       </c>
@@ -2181,23 +2364,23 @@
         <v>47.4</v>
       </c>
       <c r="T12">
-        <f t="shared" si="3"/>
+        <f>(B12*$AA$4+E12*$AB$4+H12*$AC$4+K12*$AD$4+N12*$AE$4+Q12*$AF$4)</f>
         <v>27.039256569488469</v>
       </c>
       <c r="U12">
+        <f>(C12*$AA$4+F12*$AB$4+I12*$AC$4+L12*$AD$4+O12*$AE$4+R12*$AF$4)</f>
+        <v>3.3894689696895361</v>
+      </c>
+      <c r="V12">
+        <f>(D12*$AA$4+G12*$AB$4+J12*$AC$4+M12*$AD$4+P12*$AE$4+S12*$AF$4)</f>
+        <v>65.0543700935267</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="0"/>
-        <v>3.3894689696895361</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="0"/>
-        <v>65.0543700935267</v>
-      </c>
-      <c r="W12">
+        <v>24.657466353653316</v>
+      </c>
+      <c r="X12">
         <f t="shared" si="1"/>
-        <v>24.657466353653316</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="2"/>
         <v>76.313338756772069</v>
       </c>
       <c r="Y12">
@@ -2207,7 +2390,7 @@
         <v>72310</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>42928</v>
       </c>
@@ -2266,23 +2449,23 @@
         <v>58.4</v>
       </c>
       <c r="T13">
-        <f t="shared" si="3"/>
+        <f>(B13*$AA$4+E13*$AB$4+H13*$AC$4+K13*$AD$4+N13*$AE$4+Q13*$AF$4)</f>
         <v>25.07004125907584</v>
       </c>
       <c r="U13">
+        <f>(C13*$AA$4+F13*$AB$4+I13*$AC$4+L13*$AD$4+O13*$AE$4+R13*$AF$4)</f>
+        <v>2.6895146842224276</v>
+      </c>
+      <c r="V13">
+        <f>(D13*$AA$4+G13*$AB$4+J13*$AC$4+M13*$AD$4+P13*$AE$4+S13*$AF$4)</f>
+        <v>76.333541471866539</v>
+      </c>
+      <c r="W13">
         <f t="shared" si="0"/>
-        <v>2.6895146842224276</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="0"/>
-        <v>76.333541471866539</v>
-      </c>
-      <c r="W13">
+        <v>23.643423233175124</v>
+      </c>
+      <c r="X13">
         <f t="shared" si="1"/>
-        <v>23.643423233175124</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="2"/>
         <v>74.636518827470113</v>
       </c>
       <c r="Y13">
@@ -2292,7 +2475,7 @@
         <v>63830</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>42929</v>
       </c>
@@ -2351,23 +2534,23 @@
         <v>74.599999999999994</v>
       </c>
       <c r="T14">
-        <f t="shared" si="3"/>
+        <f>(B14*$AA$4+E14*$AB$4+H14*$AC$4+K14*$AD$4+N14*$AE$4+Q14*$AF$4)</f>
         <v>24.36646363011933</v>
       </c>
       <c r="U14">
+        <f>(C14*$AA$4+F14*$AB$4+I14*$AC$4+L14*$AD$4+O14*$AE$4+R14*$AF$4)</f>
+        <v>2.7184733989434546</v>
+      </c>
+      <c r="V14">
+        <f>(D14*$AA$4+G14*$AB$4+J14*$AC$4+M14*$AD$4+P14*$AE$4+S14*$AF$4)</f>
+        <v>80.729791124051133</v>
+      </c>
+      <c r="W14">
         <f t="shared" si="0"/>
-        <v>2.7184733989434546</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="0"/>
-        <v>80.729791124051133</v>
-      </c>
-      <c r="W14">
+        <v>23.25908461027484</v>
+      </c>
+      <c r="X14">
         <f t="shared" si="1"/>
-        <v>23.25908461027484</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="2"/>
         <v>73.966760650641447</v>
       </c>
       <c r="Y14">
@@ -2377,7 +2560,7 @@
         <v>57026</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>42930</v>
       </c>
@@ -2436,23 +2619,23 @@
         <v>57.9</v>
       </c>
       <c r="T15">
-        <f t="shared" si="3"/>
+        <f>(B15*$AA$4+E15*$AB$4+H15*$AC$4+K15*$AD$4+N15*$AE$4+Q15*$AF$4)</f>
         <v>25.990545562651768</v>
       </c>
       <c r="U15">
+        <f>(C15*$AA$4+F15*$AB$4+I15*$AC$4+L15*$AD$4+O15*$AE$4+R15*$AF$4)</f>
+        <v>2.9402351895334604</v>
+      </c>
+      <c r="V15">
+        <f>(D15*$AA$4+G15*$AB$4+J15*$AC$4+M15*$AD$4+P15*$AE$4+S15*$AF$4)</f>
+        <v>74.368642912886415</v>
+      </c>
+      <c r="W15">
         <f t="shared" si="0"/>
-        <v>2.9402351895334604</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="0"/>
-        <v>74.368642912886415</v>
-      </c>
-      <c r="W15">
+        <v>24.351108029315419</v>
+      </c>
+      <c r="X15">
         <f t="shared" si="1"/>
-        <v>24.351108029315419</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="2"/>
         <v>75.85315382959871</v>
       </c>
       <c r="Y15">
@@ -2462,7 +2645,7 @@
         <v>72580</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>42931</v>
       </c>
@@ -2521,23 +2704,23 @@
         <v>77.099999999999994</v>
       </c>
       <c r="T16">
-        <f t="shared" si="3"/>
+        <f>(B16*$AA$4+E16*$AB$4+H16*$AC$4+K16*$AD$4+N16*$AE$4+Q16*$AF$4)</f>
         <v>25.572655153400863</v>
       </c>
       <c r="U16">
+        <f>(C16*$AA$4+F16*$AB$4+I16*$AC$4+L16*$AD$4+O16*$AE$4+R16*$AF$4)</f>
+        <v>2.2466933146839732</v>
+      </c>
+      <c r="V16">
+        <f>(D16*$AA$4+G16*$AB$4+J16*$AC$4+M16*$AD$4+P16*$AE$4+S16*$AF$4)</f>
+        <v>78.00645270891188</v>
+      </c>
+      <c r="W16">
         <f t="shared" si="0"/>
-        <v>2.2466933146839732</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="0"/>
-        <v>78.00645270891188</v>
-      </c>
-      <c r="W16">
+        <v>24.202663443144345</v>
+      </c>
+      <c r="X16">
         <f t="shared" si="1"/>
-        <v>24.202663443144345</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="2"/>
         <v>75.60776587404456</v>
       </c>
       <c r="Y16">
@@ -2606,23 +2789,23 @@
         <v>68.5</v>
       </c>
       <c r="T17">
-        <f t="shared" si="3"/>
+        <f>(B17*$AA$4+E17*$AB$4+H17*$AC$4+K17*$AD$4+N17*$AE$4+Q17*$AF$4)</f>
         <v>25.781209228882439</v>
       </c>
       <c r="U17">
+        <f>(C17*$AA$4+F17*$AB$4+I17*$AC$4+L17*$AD$4+O17*$AE$4+R17*$AF$4)</f>
+        <v>2.4463062107481561</v>
+      </c>
+      <c r="V17">
+        <f>(D17*$AA$4+G17*$AB$4+J17*$AC$4+M17*$AD$4+P17*$AE$4+S17*$AF$4)</f>
+        <v>76.274407602365642</v>
+      </c>
+      <c r="W17">
         <f t="shared" si="0"/>
-        <v>2.4463062107481561</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="0"/>
-        <v>76.274407602365642</v>
-      </c>
-      <c r="W17">
+        <v>24.283535078057437</v>
+      </c>
+      <c r="X17">
         <f t="shared" si="1"/>
-        <v>24.283535078057437</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="2"/>
         <v>75.743359154192433</v>
       </c>
       <c r="Y17">
@@ -2691,23 +2874,23 @@
         <v>85.8</v>
       </c>
       <c r="T18">
-        <f t="shared" si="3"/>
+        <f>(B18*$AA$4+E18*$AB$4+H18*$AC$4+K18*$AD$4+N18*$AE$4+Q18*$AF$4)</f>
         <v>24.762543724458009</v>
       </c>
       <c r="U18">
-        <f t="shared" si="3"/>
+        <f>(C18*$AA$4+F18*$AB$4+I18*$AC$4+L18*$AD$4+O18*$AE$4+R18*$AF$4)</f>
         <v>2.6443782146496959</v>
       </c>
       <c r="V18">
-        <f t="shared" si="3"/>
+        <f>(D18*$AA$4+G18*$AB$4+J18*$AC$4+M18*$AD$4+P18*$AE$4+S18*$AF$4)</f>
         <v>84.382227675842543</v>
       </c>
       <c r="W18">
+        <f t="shared" si="0"/>
+        <v>23.840311537201991</v>
+      </c>
+      <c r="X18">
         <f t="shared" si="1"/>
-        <v>23.840311537201991</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="2"/>
         <v>74.977236022828691</v>
       </c>
       <c r="Y18">
@@ -2776,23 +2959,23 @@
         <v>88.6</v>
       </c>
       <c r="T19">
-        <f t="shared" si="3"/>
+        <f>(B19*$AA$4+E19*$AB$4+H19*$AC$4+K19*$AD$4+N19*$AE$4+Q19*$AF$4)</f>
         <v>24.887782920483012</v>
       </c>
       <c r="U19">
-        <f t="shared" si="3"/>
+        <f>(C19*$AA$4+F19*$AB$4+I19*$AC$4+L19*$AD$4+O19*$AE$4+R19*$AF$4)</f>
         <v>2.4878381180548694</v>
       </c>
       <c r="V19">
-        <f t="shared" si="3"/>
+        <f>(D19*$AA$4+G19*$AB$4+J19*$AC$4+M19*$AD$4+P19*$AE$4+S19*$AF$4)</f>
         <v>87.002683224028047</v>
       </c>
       <c r="W19">
+        <f t="shared" si="0"/>
+        <v>24.113777997645322</v>
+      </c>
+      <c r="X19">
         <f t="shared" si="1"/>
-        <v>24.113777997645322</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="2"/>
         <v>75.454229010988911</v>
       </c>
       <c r="Y19">
@@ -2861,23 +3044,23 @@
         <v>76.900000000000006</v>
       </c>
       <c r="T20">
-        <f t="shared" si="3"/>
+        <f>(B20*$AA$4+E20*$AB$4+H20*$AC$4+K20*$AD$4+N20*$AE$4+Q20*$AF$4)</f>
         <v>26.402487680252257</v>
       </c>
       <c r="U20">
-        <f t="shared" si="3"/>
+        <f>(C20*$AA$4+F20*$AB$4+I20*$AC$4+L20*$AD$4+O20*$AE$4+R20*$AF$4)</f>
         <v>2.2452270852784459</v>
       </c>
       <c r="V20">
-        <f t="shared" si="3"/>
+        <f>(D20*$AA$4+G20*$AB$4+J20*$AC$4+M20*$AD$4+P20*$AE$4+S20*$AF$4)</f>
         <v>83.343688203409158</v>
       </c>
       <c r="W20">
+        <f t="shared" si="0"/>
+        <v>25.30966788408417</v>
+      </c>
+      <c r="X20">
         <f t="shared" si="1"/>
-        <v>25.30966788408417</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="2"/>
         <v>77.552626547988041</v>
       </c>
       <c r="Y20">
@@ -2946,23 +3129,23 @@
         <v>72.099999999999994</v>
       </c>
       <c r="T21">
-        <f t="shared" si="3"/>
+        <f>(B21*$AA$4+E21*$AB$4+H21*$AC$4+K21*$AD$4+N21*$AE$4+Q21*$AF$4)</f>
         <v>27.20136487364983</v>
       </c>
       <c r="U21">
-        <f t="shared" si="3"/>
+        <f>(C21*$AA$4+F21*$AB$4+I21*$AC$4+L21*$AD$4+O21*$AE$4+R21*$AF$4)</f>
         <v>2.1853341336303451</v>
       </c>
       <c r="V21">
-        <f t="shared" si="3"/>
+        <f>(D21*$AA$4+G21*$AB$4+J21*$AC$4+M21*$AD$4+P21*$AE$4+S21*$AF$4)</f>
         <v>79.574843762080533</v>
       </c>
       <c r="W21">
+        <f t="shared" si="0"/>
+        <v>25.796002613450799</v>
+      </c>
+      <c r="X21">
         <f t="shared" si="1"/>
-        <v>25.796002613450799</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="2"/>
         <v>78.382892053045552</v>
       </c>
       <c r="Y21">
@@ -3031,23 +3214,23 @@
         <v>68.599999999999994</v>
       </c>
       <c r="T22">
-        <f t="shared" si="3"/>
+        <f>(B22*$AA$4+E22*$AB$4+H22*$AC$4+K22*$AD$4+N22*$AE$4+Q22*$AF$4)</f>
         <v>26.931633846740691</v>
       </c>
       <c r="U22">
-        <f t="shared" si="3"/>
+        <f>(C22*$AA$4+F22*$AB$4+I22*$AC$4+L22*$AD$4+O22*$AE$4+R22*$AF$4)</f>
         <v>2.5850148435901663</v>
       </c>
       <c r="V22">
-        <f t="shared" si="3"/>
+        <f>(D22*$AA$4+G22*$AB$4+J22*$AC$4+M22*$AD$4+P22*$AE$4+S22*$AF$4)</f>
         <v>78.328151025067058</v>
       </c>
       <c r="W22">
+        <f t="shared" si="0"/>
+        <v>25.463874600238984</v>
+      </c>
+      <c r="X22">
         <f t="shared" si="1"/>
-        <v>25.463874600238984</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="2"/>
         <v>77.797798143938564</v>
       </c>
       <c r="Y22">
@@ -3116,23 +3299,23 @@
         <v>68.5</v>
       </c>
       <c r="T23">
-        <f t="shared" si="3"/>
+        <f>(B23*$AA$4+E23*$AB$4+H23*$AC$4+K23*$AD$4+N23*$AE$4+Q23*$AF$4)</f>
         <v>26.126308450261163</v>
       </c>
       <c r="U23">
-        <f t="shared" si="3"/>
+        <f>(C23*$AA$4+F23*$AB$4+I23*$AC$4+L23*$AD$4+O23*$AE$4+R23*$AF$4)</f>
         <v>4.0575852781458064</v>
       </c>
       <c r="V23">
-        <f t="shared" si="3"/>
+        <f>(D23*$AA$4+G23*$AB$4+J23*$AC$4+M23*$AD$4+P23*$AE$4+S23*$AF$4)</f>
         <v>83.077437026636574</v>
       </c>
       <c r="W23">
+        <f t="shared" si="0"/>
+        <v>25.034714569151454</v>
+      </c>
+      <c r="X23">
         <f t="shared" si="1"/>
-        <v>25.034714569151454</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="2"/>
         <v>77.070253125551559</v>
       </c>
       <c r="Y23">
@@ -3201,23 +3384,23 @@
         <v>71.8</v>
       </c>
       <c r="T24">
-        <f t="shared" si="3"/>
+        <f>(B24*$AA$4+E24*$AB$4+H24*$AC$4+K24*$AD$4+N24*$AE$4+Q24*$AF$4)</f>
         <v>25.028331031817032</v>
       </c>
       <c r="U24">
-        <f t="shared" si="3"/>
+        <f>(C24*$AA$4+F24*$AB$4+I24*$AC$4+L24*$AD$4+O24*$AE$4+R24*$AF$4)</f>
         <v>3.2632472300814936</v>
       </c>
       <c r="V24">
-        <f t="shared" si="3"/>
+        <f>(D24*$AA$4+G24*$AB$4+J24*$AC$4+M24*$AD$4+P24*$AE$4+S24*$AF$4)</f>
         <v>86.377347561650495</v>
       </c>
       <c r="W24">
+        <f t="shared" si="0"/>
+        <v>24.209428110317408</v>
+      </c>
+      <c r="X24">
         <f t="shared" si="1"/>
-        <v>24.209428110317408</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="2"/>
         <v>75.623607833846478</v>
       </c>
       <c r="Y24">
@@ -3286,23 +3469,23 @@
         <v>73.5</v>
       </c>
       <c r="T25">
-        <f t="shared" si="3"/>
+        <f>(B25*$AA$4+E25*$AB$4+H25*$AC$4+K25*$AD$4+N25*$AE$4+Q25*$AF$4)</f>
         <v>24.538450631331468</v>
       </c>
       <c r="U25">
-        <f t="shared" si="3"/>
+        <f>(C25*$AA$4+F25*$AB$4+I25*$AC$4+L25*$AD$4+O25*$AE$4+R25*$AF$4)</f>
         <v>2.5981463200563546</v>
       </c>
       <c r="V25">
-        <f t="shared" si="3"/>
+        <f>(D25*$AA$4+G25*$AB$4+J25*$AC$4+M25*$AD$4+P25*$AE$4+S25*$AF$4)</f>
         <v>88.593285962195466</v>
       </c>
       <c r="W25">
+        <f t="shared" si="0"/>
+        <v>23.875106835714121</v>
+      </c>
+      <c r="X25">
         <f t="shared" si="1"/>
-        <v>23.875106835714121</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="2"/>
         <v>75.029330659907103</v>
       </c>
       <c r="Y25">
@@ -3371,23 +3554,23 @@
         <v>69.599999999999994</v>
       </c>
       <c r="T26">
-        <f t="shared" si="3"/>
+        <f>(B26*$AA$4+E26*$AB$4+H26*$AC$4+K26*$AD$4+N26*$AE$4+Q26*$AF$4)</f>
         <v>27.897754876659722</v>
       </c>
       <c r="U26">
-        <f t="shared" si="3"/>
+        <f>(C26*$AA$4+F26*$AB$4+I26*$AC$4+L26*$AD$4+O26*$AE$4+R26*$AF$4)</f>
         <v>3.716187552143428</v>
       </c>
       <c r="V26">
-        <f t="shared" si="3"/>
+        <f>(D26*$AA$4+G26*$AB$4+J26*$AC$4+M26*$AD$4+P26*$AE$4+S26*$AF$4)</f>
         <v>82.327361344868706</v>
       </c>
       <c r="W26">
+        <f t="shared" si="0"/>
+        <v>26.632552657966436</v>
+      </c>
+      <c r="X26">
         <f t="shared" si="1"/>
-        <v>26.632552657966436</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="2"/>
         <v>79.8621793875474</v>
       </c>
       <c r="Y26">
@@ -3456,23 +3639,23 @@
         <v>58.9</v>
       </c>
       <c r="T27">
-        <f t="shared" si="3"/>
+        <f>(B27*$AA$4+E27*$AB$4+H27*$AC$4+K27*$AD$4+N27*$AE$4+Q27*$AF$4)</f>
         <v>24.396477591722174</v>
       </c>
       <c r="U27">
-        <f t="shared" si="3"/>
+        <f>(C27*$AA$4+F27*$AB$4+I27*$AC$4+L27*$AD$4+O27*$AE$4+R27*$AF$4)</f>
         <v>5.9190934612181829</v>
       </c>
       <c r="V27">
-        <f t="shared" si="3"/>
+        <f>(D27*$AA$4+G27*$AB$4+J27*$AC$4+M27*$AD$4+P27*$AE$4+S27*$AF$4)</f>
         <v>82.074961204804382</v>
       </c>
       <c r="W27">
+        <f t="shared" si="0"/>
+        <v>23.364247914339039</v>
+      </c>
+      <c r="X27">
         <f t="shared" si="1"/>
-        <v>23.364247914339039</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="2"/>
         <v>74.147592920565259</v>
       </c>
       <c r="Y27">
@@ -3541,23 +3724,23 @@
         <v>59.5</v>
       </c>
       <c r="T28">
-        <f t="shared" si="3"/>
+        <f>(B28*$AA$4+E28*$AB$4+H28*$AC$4+K28*$AD$4+N28*$AE$4+Q28*$AF$4)</f>
         <v>24.70404463627624</v>
       </c>
       <c r="U28">
-        <f t="shared" si="3"/>
+        <f>(C28*$AA$4+F28*$AB$4+I28*$AC$4+L28*$AD$4+O28*$AE$4+R28*$AF$4)</f>
         <v>1.981932735769399</v>
       </c>
       <c r="V28">
-        <f t="shared" si="3"/>
+        <f>(D28*$AA$4+G28*$AB$4+J28*$AC$4+M28*$AD$4+P28*$AE$4+S28*$AF$4)</f>
         <v>74.414051747169054</v>
       </c>
       <c r="W28">
+        <f t="shared" si="0"/>
+        <v>23.199176935591918</v>
+      </c>
+      <c r="X28">
         <f t="shared" si="1"/>
-        <v>23.199176935591918</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="2"/>
         <v>73.868514509228106</v>
       </c>
       <c r="Y28">
@@ -3626,23 +3809,23 @@
         <v>65.5</v>
       </c>
       <c r="T29">
-        <f t="shared" si="3"/>
+        <f>(B29*$AA$4+E29*$AB$4+H29*$AC$4+K29*$AD$4+N29*$AE$4+Q29*$AF$4)</f>
         <v>25.339871548262778</v>
       </c>
       <c r="U29">
-        <f t="shared" si="3"/>
+        <f>(C29*$AA$4+F29*$AB$4+I29*$AC$4+L29*$AD$4+O29*$AE$4+R29*$AF$4)</f>
         <v>1.9638355528281293</v>
       </c>
       <c r="V29">
-        <f t="shared" si="3"/>
+        <f>(D29*$AA$4+G29*$AB$4+J29*$AC$4+M29*$AD$4+P29*$AE$4+S29*$AF$4)</f>
         <v>75.307640057484221</v>
       </c>
       <c r="W29">
+        <f t="shared" si="0"/>
+        <v>23.824761029296134</v>
+      </c>
+      <c r="X29">
         <f t="shared" si="1"/>
-        <v>23.824761029296134</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="2"/>
         <v>74.948334089901238</v>
       </c>
       <c r="Y29">
@@ -3711,23 +3894,23 @@
         <v>72.5</v>
       </c>
       <c r="T30">
-        <f t="shared" si="3"/>
+        <f>(B30*$AA$4+E30*$AB$4+H30*$AC$4+K30*$AD$4+N30*$AE$4+Q30*$AF$4)</f>
         <v>25.979575105322041</v>
       </c>
       <c r="U30">
-        <f t="shared" si="3"/>
+        <f>(C30*$AA$4+F30*$AB$4+I30*$AC$4+L30*$AD$4+O30*$AE$4+R30*$AF$4)</f>
         <v>2.3486967360646118</v>
       </c>
       <c r="V30">
-        <f t="shared" si="3"/>
+        <f>(D30*$AA$4+G30*$AB$4+J30*$AC$4+M30*$AD$4+P30*$AE$4+S30*$AF$4)</f>
         <v>75.459476169312538</v>
       </c>
       <c r="W30">
+        <f t="shared" si="0"/>
+        <v>24.410986530616377</v>
+      </c>
+      <c r="X30">
         <f t="shared" si="1"/>
-        <v>24.410986530616377</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="2"/>
         <v>75.96076151573341</v>
       </c>
       <c r="Y30">
@@ -3796,23 +3979,23 @@
         <v>66.599999999999994</v>
       </c>
       <c r="T31">
-        <f t="shared" si="3"/>
+        <f>(B31*$AA$4+E31*$AB$4+H31*$AC$4+K31*$AD$4+N31*$AE$4+Q31*$AF$4)</f>
         <v>28.49987660958065</v>
       </c>
       <c r="U31">
-        <f t="shared" si="3"/>
+        <f>(C31*$AA$4+F31*$AB$4+I31*$AC$4+L31*$AD$4+O31*$AE$4+R31*$AF$4)</f>
         <v>1.9325074693951323</v>
       </c>
       <c r="V31">
-        <f t="shared" si="3"/>
+        <f>(D31*$AA$4+G31*$AB$4+J31*$AC$4+M31*$AD$4+P31*$AE$4+S31*$AF$4)</f>
         <v>74.581383814772394</v>
       </c>
       <c r="W31">
+        <f t="shared" si="0"/>
+        <v>26.618911557528648</v>
+      </c>
+      <c r="X31">
         <f t="shared" si="1"/>
-        <v>26.618911557528648</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="2"/>
         <v>79.762808505566483</v>
       </c>
       <c r="Y31">
@@ -3881,23 +4064,23 @@
         <v>76.5</v>
       </c>
       <c r="T32">
-        <f t="shared" si="3"/>
+        <f>(B32*$AA$4+E32*$AB$4+H32*$AC$4+K32*$AD$4+N32*$AE$4+Q32*$AF$4)</f>
         <v>28.622743460735251</v>
       </c>
       <c r="U32">
-        <f t="shared" si="3"/>
+        <f>(C32*$AA$4+F32*$AB$4+I32*$AC$4+L32*$AD$4+O32*$AE$4+R32*$AF$4)</f>
         <v>1.9990489140418435</v>
       </c>
       <c r="V32">
-        <f t="shared" si="3"/>
+        <f>(D32*$AA$4+G32*$AB$4+J32*$AC$4+M32*$AD$4+P32*$AE$4+S32*$AF$4)</f>
         <v>77.913998943463767</v>
       </c>
       <c r="W32">
+        <f t="shared" si="0"/>
+        <v>26.977535733737643</v>
+      </c>
+      <c r="X32">
         <f t="shared" si="1"/>
-        <v>26.977535733737643</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="2"/>
         <v>80.420833151491962</v>
       </c>
       <c r="Y32">
@@ -3966,23 +4149,23 @@
         <v>80.099999999999994</v>
       </c>
       <c r="T33">
-        <f t="shared" si="3"/>
+        <f>(B33*$AA$4+E33*$AB$4+H33*$AC$4+K33*$AD$4+N33*$AE$4+Q33*$AF$4)</f>
         <v>29.245167654537138</v>
       </c>
       <c r="U33">
-        <f t="shared" si="3"/>
+        <f>(C33*$AA$4+F33*$AB$4+I33*$AC$4+L33*$AD$4+O33*$AE$4+R33*$AF$4)</f>
         <v>2.8332699343807901</v>
       </c>
       <c r="V33">
-        <f t="shared" si="3"/>
+        <f>(D33*$AA$4+G33*$AB$4+J33*$AC$4+M33*$AD$4+P33*$AE$4+S33*$AF$4)</f>
         <v>70.148969207065903</v>
       </c>
       <c r="W33">
+        <f t="shared" si="0"/>
+        <v>26.947215285454067</v>
+      </c>
+      <c r="X33">
         <f t="shared" si="1"/>
-        <v>26.947215285454067</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="2"/>
         <v>80.267315019575349</v>
       </c>
       <c r="Y33">
@@ -4051,23 +4234,23 @@
         <v>78.599999999999994</v>
       </c>
       <c r="T34">
-        <f t="shared" si="3"/>
+        <f>(B34*$AA$4+E34*$AB$4+H34*$AC$4+K34*$AD$4+N34*$AE$4+Q34*$AF$4)</f>
         <v>29.28875694689216</v>
       </c>
       <c r="U34">
-        <f t="shared" si="3"/>
+        <f>(C34*$AA$4+F34*$AB$4+I34*$AC$4+L34*$AD$4+O34*$AE$4+R34*$AF$4)</f>
         <v>4.4557478422966925</v>
       </c>
       <c r="V34">
-        <f t="shared" si="3"/>
+        <f>(D34*$AA$4+G34*$AB$4+J34*$AC$4+M34*$AD$4+P34*$AE$4+S34*$AF$4)</f>
         <v>68.08816422922834</v>
       </c>
       <c r="W34">
+        <f t="shared" si="0"/>
+        <v>26.826598371245947</v>
+      </c>
+      <c r="X34">
         <f t="shared" si="1"/>
-        <v>26.826598371245947</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="2"/>
         <v>80.030040803595455</v>
       </c>
       <c r="Y34">
@@ -4136,23 +4319,23 @@
         <v>92.4</v>
       </c>
       <c r="T35">
-        <f t="shared" si="3"/>
+        <f>(B35*$AA$4+E35*$AB$4+H35*$AC$4+K35*$AD$4+N35*$AE$4+Q35*$AF$4)</f>
         <v>26.040428219287236</v>
       </c>
       <c r="U35">
-        <f t="shared" si="3"/>
+        <f>(C35*$AA$4+F35*$AB$4+I35*$AC$4+L35*$AD$4+O35*$AE$4+R35*$AF$4)</f>
         <v>4.4730998811246527</v>
       </c>
       <c r="V35">
-        <f t="shared" si="3"/>
+        <f>(D35*$AA$4+G35*$AB$4+J35*$AC$4+M35*$AD$4+P35*$AE$4+S35*$AF$4)</f>
         <v>90.104683937289366</v>
       </c>
       <c r="W35">
+        <f t="shared" si="0"/>
+        <v>25.405527791242957</v>
+      </c>
+      <c r="X35">
         <f t="shared" si="1"/>
-        <v>25.405527791242957</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="2"/>
         <v>77.736786142066705</v>
       </c>
       <c r="Y35">
@@ -4221,23 +4404,23 @@
         <v>93.9</v>
       </c>
       <c r="T36">
-        <f t="shared" si="3"/>
+        <f>(B36*$AA$4+E36*$AB$4+H36*$AC$4+K36*$AD$4+N36*$AE$4+Q36*$AF$4)</f>
         <v>25.51482865853864</v>
       </c>
       <c r="U36">
-        <f t="shared" si="3"/>
+        <f>(C36*$AA$4+F36*$AB$4+I36*$AC$4+L36*$AD$4+O36*$AE$4+R36*$AF$4)</f>
         <v>2.8459375737829653</v>
       </c>
       <c r="V36">
-        <f t="shared" si="3"/>
+        <f>(D36*$AA$4+G36*$AB$4+J36*$AC$4+M36*$AD$4+P36*$AE$4+S36*$AF$4)</f>
         <v>94.680688752380973</v>
       </c>
       <c r="W36">
+        <f t="shared" si="0"/>
+        <v>25.184715848185654</v>
+      </c>
+      <c r="X36">
         <f t="shared" si="1"/>
-        <v>25.184715848185654</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="2"/>
         <v>77.343712074641147</v>
       </c>
       <c r="Y36">
@@ -4306,23 +4489,23 @@
         <v>81.5</v>
       </c>
       <c r="T37">
-        <f t="shared" si="3"/>
+        <f>(B37*$AA$4+E37*$AB$4+H37*$AC$4+K37*$AD$4+N37*$AE$4+Q37*$AF$4)</f>
         <v>26.413246414410747</v>
       </c>
       <c r="U37">
-        <f t="shared" si="3"/>
+        <f>(C37*$AA$4+F37*$AB$4+I37*$AC$4+L37*$AD$4+O37*$AE$4+R37*$AF$4)</f>
         <v>2.8883205745945228</v>
       </c>
       <c r="V37">
-        <f t="shared" si="3"/>
+        <f>(D37*$AA$4+G37*$AB$4+J37*$AC$4+M37*$AD$4+P37*$AE$4+S37*$AF$4)</f>
         <v>88.199286687842061</v>
       </c>
       <c r="W37">
+        <f t="shared" si="0"/>
+        <v>25.638494352577684</v>
+      </c>
+      <c r="X37">
         <f t="shared" si="1"/>
-        <v>25.638494352577684</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="2"/>
         <v>78.145563578637464</v>
       </c>
       <c r="Y37">
@@ -4391,23 +4574,23 @@
         <v>82.6</v>
       </c>
       <c r="T38">
-        <f t="shared" si="3"/>
+        <f>(B38*$AA$4+E38*$AB$4+H38*$AC$4+K38*$AD$4+N38*$AE$4+Q38*$AF$4)</f>
         <v>25.161219601996116</v>
       </c>
       <c r="U38">
-        <f t="shared" si="3"/>
+        <f>(C38*$AA$4+F38*$AB$4+I38*$AC$4+L38*$AD$4+O38*$AE$4+R38*$AF$4)</f>
         <v>2.2093661184604407</v>
       </c>
       <c r="V38">
-        <f t="shared" si="3"/>
+        <f>(D38*$AA$4+G38*$AB$4+J38*$AC$4+M38*$AD$4+P38*$AE$4+S38*$AF$4)</f>
         <v>89.946450711558342</v>
       </c>
       <c r="W38">
+        <f t="shared" si="0"/>
+        <v>24.551523327829894</v>
+      </c>
+      <c r="X38">
         <f t="shared" si="1"/>
-        <v>24.551523327829894</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="2"/>
         <v>76.223553173723047</v>
       </c>
       <c r="Y38">
@@ -4476,23 +4659,23 @@
         <v>94.5</v>
       </c>
       <c r="T39">
-        <f t="shared" si="3"/>
+        <f>(B39*$AA$4+E39*$AB$4+H39*$AC$4+K39*$AD$4+N39*$AE$4+Q39*$AF$4)</f>
         <v>24.110300701527677</v>
       </c>
       <c r="U39">
-        <f t="shared" si="3"/>
+        <f>(C39*$AA$4+F39*$AB$4+I39*$AC$4+L39*$AD$4+O39*$AE$4+R39*$AF$4)</f>
         <v>1.7144011038035534</v>
       </c>
       <c r="V39">
-        <f t="shared" si="3"/>
+        <f>(D39*$AA$4+G39*$AB$4+J39*$AC$4+M39*$AD$4+P39*$AE$4+S39*$AF$4)</f>
         <v>92.319567834992171</v>
       </c>
       <c r="W39">
+        <f t="shared" si="0"/>
+        <v>23.676807872063893</v>
+      </c>
+      <c r="X39">
         <f t="shared" si="1"/>
-        <v>23.676807872063893</v>
-      </c>
-      <c r="X39">
-        <f t="shared" si="2"/>
         <v>74.663585525087313</v>
       </c>
       <c r="Y39">
@@ -4561,23 +4744,23 @@
         <v>87</v>
       </c>
       <c r="T40">
-        <f t="shared" si="3"/>
+        <f>(B40*$AA$4+E40*$AB$4+H40*$AC$4+K40*$AD$4+N40*$AE$4+Q40*$AF$4)</f>
         <v>24.933733415599775</v>
       </c>
       <c r="U40">
-        <f t="shared" si="3"/>
+        <f>(C40*$AA$4+F40*$AB$4+I40*$AC$4+L40*$AD$4+O40*$AE$4+R40*$AF$4)</f>
         <v>3.831597966470432</v>
       </c>
       <c r="V40">
-        <f t="shared" si="3"/>
+        <f>(D40*$AA$4+G40*$AB$4+J40*$AC$4+M40*$AD$4+P40*$AE$4+S40*$AF$4)</f>
         <v>72.665730746484769</v>
       </c>
       <c r="W40">
+        <f t="shared" si="0"/>
+        <v>23.300922655030888</v>
+      </c>
+      <c r="X40">
         <f t="shared" si="1"/>
-        <v>23.300922655030888</v>
-      </c>
-      <c r="X40">
-        <f t="shared" si="2"/>
         <v>74.042221362826268</v>
       </c>
       <c r="Y40">
@@ -4646,23 +4829,23 @@
         <v>77.099999999999994</v>
       </c>
       <c r="T41">
-        <f t="shared" si="3"/>
+        <f>(B41*$AA$4+E41*$AB$4+H41*$AC$4+K41*$AD$4+N41*$AE$4+Q41*$AF$4)</f>
         <v>25.813494780377301</v>
       </c>
       <c r="U41">
-        <f t="shared" si="3"/>
+        <f>(C41*$AA$4+F41*$AB$4+I41*$AC$4+L41*$AD$4+O41*$AE$4+R41*$AF$4)</f>
         <v>4.434944615031827</v>
       </c>
       <c r="V41">
-        <f t="shared" si="3"/>
+        <f>(D41*$AA$4+G41*$AB$4+J41*$AC$4+M41*$AD$4+P41*$AE$4+S41*$AF$4)</f>
         <v>61.028823008366558</v>
       </c>
       <c r="W41">
+        <f t="shared" si="0"/>
+        <v>23.348412764607879</v>
+      </c>
+      <c r="X41">
         <f t="shared" si="1"/>
-        <v>23.348412764607879</v>
-      </c>
-      <c r="X41">
-        <f t="shared" si="2"/>
         <v>74.077944403281691</v>
       </c>
       <c r="Y41">
@@ -4731,23 +4914,23 @@
         <v>85.9</v>
       </c>
       <c r="T42">
-        <f t="shared" si="3"/>
+        <f>(B42*$AA$4+E42*$AB$4+H42*$AC$4+K42*$AD$4+N42*$AE$4+Q42*$AF$4)</f>
         <v>23.308170982889727</v>
       </c>
       <c r="U42">
-        <f t="shared" si="3"/>
+        <f>(C42*$AA$4+F42*$AB$4+I42*$AC$4+L42*$AD$4+O42*$AE$4+R42*$AF$4)</f>
         <v>2.6921990358633097</v>
       </c>
       <c r="V42">
-        <f t="shared" si="3"/>
+        <f>(D42*$AA$4+G42*$AB$4+J42*$AC$4+M42*$AD$4+P42*$AE$4+S42*$AF$4)</f>
         <v>83.004574295428</v>
       </c>
       <c r="W42">
+        <f t="shared" si="0"/>
+        <v>22.403458858075954</v>
+      </c>
+      <c r="X42">
         <f t="shared" si="1"/>
-        <v>22.403458858075954</v>
-      </c>
-      <c r="X42">
-        <f t="shared" si="2"/>
         <v>72.463343991288582</v>
       </c>
       <c r="Y42">
@@ -4816,23 +4999,23 @@
         <v>73.5</v>
       </c>
       <c r="T43">
-        <f t="shared" si="3"/>
+        <f>(B43*$AA$4+E43*$AB$4+H43*$AC$4+K43*$AD$4+N43*$AE$4+Q43*$AF$4)</f>
         <v>23.718087732251846</v>
       </c>
       <c r="U43">
-        <f t="shared" si="3"/>
+        <f>(C43*$AA$4+F43*$AB$4+I43*$AC$4+L43*$AD$4+O43*$AE$4+R43*$AF$4)</f>
         <v>2.183622777834441</v>
       </c>
       <c r="V43">
-        <f t="shared" si="3"/>
+        <f>(D43*$AA$4+G43*$AB$4+J43*$AC$4+M43*$AD$4+P43*$AE$4+S43*$AF$4)</f>
         <v>80.291647947446592</v>
       </c>
       <c r="W43">
+        <f t="shared" si="0"/>
+        <v>22.636644122191711</v>
+      </c>
+      <c r="X43">
         <f t="shared" si="1"/>
-        <v>22.636644122191711</v>
-      </c>
-      <c r="X43">
-        <f t="shared" si="2"/>
         <v>72.883152473466851</v>
       </c>
       <c r="Y43">
@@ -4901,23 +5084,23 @@
         <v>67.3</v>
       </c>
       <c r="T44">
-        <f t="shared" si="3"/>
+        <f>(B44*$AA$4+E44*$AB$4+H44*$AC$4+K44*$AD$4+N44*$AE$4+Q44*$AF$4)</f>
         <v>25.458375475936947</v>
       </c>
       <c r="U44">
-        <f t="shared" si="3"/>
+        <f>(C44*$AA$4+F44*$AB$4+I44*$AC$4+L44*$AD$4+O44*$AE$4+R44*$AF$4)</f>
         <v>2.369680399866295</v>
       </c>
       <c r="V44">
-        <f t="shared" si="3"/>
+        <f>(D44*$AA$4+G44*$AB$4+J44*$AC$4+M44*$AD$4+P44*$AE$4+S44*$AF$4)</f>
         <v>77.812689701794014</v>
       </c>
       <c r="W44">
+        <f t="shared" si="0"/>
+        <v>24.086456382373783</v>
+      </c>
+      <c r="X44">
         <f t="shared" si="1"/>
-        <v>24.086456382373783</v>
-      </c>
-      <c r="X44">
-        <f t="shared" si="2"/>
         <v>75.405817753238736</v>
       </c>
       <c r="Y44">
@@ -4986,23 +5169,23 @@
         <v>83.3</v>
       </c>
       <c r="T45">
-        <f t="shared" si="3"/>
+        <f>(B45*$AA$4+E45*$AB$4+H45*$AC$4+K45*$AD$4+N45*$AE$4+Q45*$AF$4)</f>
         <v>24.128499854866064</v>
       </c>
       <c r="U45">
-        <f t="shared" si="3"/>
+        <f>(C45*$AA$4+F45*$AB$4+I45*$AC$4+L45*$AD$4+O45*$AE$4+R45*$AF$4)</f>
         <v>1.7005505569598598</v>
       </c>
       <c r="V45">
-        <f t="shared" si="3"/>
+        <f>(D45*$AA$4+G45*$AB$4+J45*$AC$4+M45*$AD$4+P45*$AE$4+S45*$AF$4)</f>
         <v>80.043414637144593</v>
       </c>
       <c r="W45">
+        <f t="shared" si="0"/>
+        <v>23.000673401255163</v>
+      </c>
+      <c r="X45">
         <f t="shared" si="1"/>
-        <v>23.000673401255163</v>
-      </c>
-      <c r="X45">
-        <f t="shared" si="2"/>
         <v>73.518019022037578</v>
       </c>
       <c r="Y45">
@@ -5071,23 +5254,23 @@
         <v>97.5</v>
       </c>
       <c r="T46">
-        <f t="shared" si="3"/>
+        <f>(B46*$AA$4+E46*$AB$4+H46*$AC$4+K46*$AD$4+N46*$AE$4+Q46*$AF$4)</f>
         <v>21.722478000343187</v>
       </c>
       <c r="U46">
-        <f t="shared" si="3"/>
+        <f>(C46*$AA$4+F46*$AB$4+I46*$AC$4+L46*$AD$4+O46*$AE$4+R46*$AF$4)</f>
         <v>2.1634628305771439</v>
       </c>
       <c r="V46">
-        <f t="shared" si="3"/>
+        <f>(D46*$AA$4+G46*$AB$4+J46*$AC$4+M46*$AD$4+P46*$AE$4+S46*$AF$4)</f>
         <v>87.632058429938709</v>
       </c>
       <c r="W46">
+        <f t="shared" si="0"/>
+        <v>21.142546308484892</v>
+      </c>
+      <c r="X46">
         <f t="shared" si="1"/>
-        <v>21.142546308484892</v>
-      </c>
-      <c r="X46">
-        <f t="shared" si="2"/>
         <v>70.209318892351163</v>
       </c>
       <c r="Y46">
@@ -5156,23 +5339,23 @@
         <v>89.9</v>
       </c>
       <c r="T47">
-        <f t="shared" si="3"/>
+        <f>(B47*$AA$4+E47*$AB$4+H47*$AC$4+K47*$AD$4+N47*$AE$4+Q47*$AF$4)</f>
         <v>24.045073387953853</v>
       </c>
       <c r="U47">
-        <f t="shared" si="3"/>
+        <f>(C47*$AA$4+F47*$AB$4+I47*$AC$4+L47*$AD$4+O47*$AE$4+R47*$AF$4)</f>
         <v>1.9114841589115172</v>
       </c>
       <c r="V47">
-        <f t="shared" si="3"/>
+        <f>(D47*$AA$4+G47*$AB$4+J47*$AC$4+M47*$AD$4+P47*$AE$4+S47*$AF$4)</f>
         <v>82.651715438771021</v>
       </c>
       <c r="W47">
+        <f t="shared" si="0"/>
+        <v>23.070441668683582</v>
+      </c>
+      <c r="X47">
         <f t="shared" si="1"/>
-        <v>23.070441668683582</v>
-      </c>
-      <c r="X47">
-        <f t="shared" si="2"/>
         <v>73.632243113817083</v>
       </c>
       <c r="Y47">
@@ -5241,23 +5424,23 @@
         <v>81.599999999999994</v>
       </c>
       <c r="T48">
-        <f t="shared" si="3"/>
+        <f>(B48*$AA$4+E48*$AB$4+H48*$AC$4+K48*$AD$4+N48*$AE$4+Q48*$AF$4)</f>
         <v>25.35285259008737</v>
       </c>
       <c r="U48">
-        <f t="shared" si="3"/>
+        <f>(C48*$AA$4+F48*$AB$4+I48*$AC$4+L48*$AD$4+O48*$AE$4+R48*$AF$4)</f>
         <v>1.8768878283577339</v>
       </c>
       <c r="V48">
-        <f t="shared" si="3"/>
+        <f>(D48*$AA$4+G48*$AB$4+J48*$AC$4+M48*$AD$4+P48*$AE$4+S48*$AF$4)</f>
         <v>78.262769764614987</v>
       </c>
       <c r="W48">
+        <f t="shared" si="0"/>
+        <v>24.017938624004746</v>
+      </c>
+      <c r="X48">
         <f t="shared" si="1"/>
-        <v>24.017938624004746</v>
-      </c>
-      <c r="X48">
-        <f t="shared" si="2"/>
         <v>75.287660726459706</v>
       </c>
       <c r="Y48">
@@ -5326,23 +5509,23 @@
         <v>81.8</v>
       </c>
       <c r="T49">
-        <f t="shared" si="3"/>
+        <f>(B49*$AA$4+E49*$AB$4+H49*$AC$4+K49*$AD$4+N49*$AE$4+Q49*$AF$4)</f>
         <v>23.653090322295313</v>
       </c>
       <c r="U49">
-        <f t="shared" si="3"/>
+        <f>(C49*$AA$4+F49*$AB$4+I49*$AC$4+L49*$AD$4+O49*$AE$4+R49*$AF$4)</f>
         <v>2.1665859807317771</v>
       </c>
       <c r="V49">
-        <f t="shared" si="3"/>
+        <f>(D49*$AA$4+G49*$AB$4+J49*$AC$4+M49*$AD$4+P49*$AE$4+S49*$AF$4)</f>
         <v>83.792180573514045</v>
       </c>
       <c r="W49">
+        <f t="shared" si="0"/>
+        <v>22.767943032066253</v>
+      </c>
+      <c r="X49">
         <f t="shared" si="1"/>
-        <v>22.767943032066253</v>
-      </c>
-      <c r="X49">
-        <f t="shared" si="2"/>
         <v>73.097967091580017</v>
       </c>
       <c r="Y49">
@@ -5411,23 +5594,23 @@
         <v>98.4</v>
       </c>
       <c r="T50">
-        <f t="shared" si="3"/>
+        <f>(B50*$AA$4+E50*$AB$4+H50*$AC$4+K50*$AD$4+N50*$AE$4+Q50*$AF$4)</f>
         <v>22.161803973476516</v>
       </c>
       <c r="U50">
-        <f t="shared" si="3"/>
+        <f>(C50*$AA$4+F50*$AB$4+I50*$AC$4+L50*$AD$4+O50*$AE$4+R50*$AF$4)</f>
         <v>3.228557584945408</v>
       </c>
       <c r="V50">
-        <f t="shared" si="3"/>
+        <f>(D50*$AA$4+G50*$AB$4+J50*$AC$4+M50*$AD$4+P50*$AE$4+S50*$AF$4)</f>
         <v>93.774731652410765</v>
       </c>
       <c r="W50">
+        <f t="shared" si="0"/>
+        <v>21.858962000173843</v>
+      </c>
+      <c r="X50">
         <f t="shared" si="1"/>
-        <v>21.858962000173843</v>
-      </c>
-      <c r="X50">
-        <f t="shared" si="2"/>
         <v>71.415625075627545</v>
       </c>
       <c r="Y50">
@@ -5496,23 +5679,23 @@
         <v>96</v>
       </c>
       <c r="T51">
-        <f t="shared" si="3"/>
+        <f>(B51*$AA$4+E51*$AB$4+H51*$AC$4+K51*$AD$4+N51*$AE$4+Q51*$AF$4)</f>
         <v>22.856996382350033</v>
       </c>
       <c r="U51">
-        <f t="shared" si="3"/>
+        <f>(C51*$AA$4+F51*$AB$4+I51*$AC$4+L51*$AD$4+O51*$AE$4+R51*$AF$4)</f>
         <v>1.9123869839652072</v>
       </c>
       <c r="V51">
-        <f t="shared" si="3"/>
+        <f>(D51*$AA$4+G51*$AB$4+J51*$AC$4+M51*$AD$4+P51*$AE$4+S51*$AF$4)</f>
         <v>95.869693718637393</v>
       </c>
       <c r="W51">
+        <f t="shared" si="0"/>
+        <v>22.644583050680126</v>
+      </c>
+      <c r="X51">
         <f t="shared" si="1"/>
-        <v>22.644583050680126</v>
-      </c>
-      <c r="X51">
-        <f t="shared" si="2"/>
         <v>72.798603968727008</v>
       </c>
       <c r="Y51">
@@ -5581,23 +5764,23 @@
         <v>98.6</v>
       </c>
       <c r="T52">
-        <f t="shared" si="3"/>
+        <f>(B52*$AA$4+E52*$AB$4+H52*$AC$4+K52*$AD$4+N52*$AE$4+Q52*$AF$4)</f>
         <v>24.184948346783276</v>
       </c>
       <c r="U52">
-        <f t="shared" si="3"/>
+        <f>(C52*$AA$4+F52*$AB$4+I52*$AC$4+L52*$AD$4+O52*$AE$4+R52*$AF$4)</f>
         <v>1.494334258545815</v>
       </c>
       <c r="V52">
-        <f t="shared" si="3"/>
+        <f>(D52*$AA$4+G52*$AB$4+J52*$AC$4+M52*$AD$4+P52*$AE$4+S52*$AF$4)</f>
         <v>91.565334076325442</v>
       </c>
       <c r="W52">
+        <f t="shared" si="0"/>
+        <v>23.70636714498449</v>
+      </c>
+      <c r="X52">
         <f t="shared" si="1"/>
-        <v>23.70636714498449</v>
-      </c>
-      <c r="X52">
-        <f t="shared" si="2"/>
         <v>74.719543850399589</v>
       </c>
       <c r="Y52">
@@ -5666,23 +5849,23 @@
         <v>78</v>
       </c>
       <c r="T53">
-        <f t="shared" si="3"/>
+        <f>(B53*$AA$4+E53*$AB$4+H53*$AC$4+K53*$AD$4+N53*$AE$4+Q53*$AF$4)</f>
         <v>23.738024865064261</v>
       </c>
       <c r="U53">
-        <f t="shared" si="3"/>
+        <f>(C53*$AA$4+F53*$AB$4+I53*$AC$4+L53*$AD$4+O53*$AE$4+R53*$AF$4)</f>
         <v>3.1378300468426081</v>
       </c>
       <c r="V53">
-        <f t="shared" si="3"/>
+        <f>(D53*$AA$4+G53*$AB$4+J53*$AC$4+M53*$AD$4+P53*$AE$4+S53*$AF$4)</f>
         <v>92.739157251754307</v>
       </c>
       <c r="W53">
+        <f t="shared" si="0"/>
+        <v>23.33902631219738</v>
+      </c>
+      <c r="X53">
         <f t="shared" si="1"/>
-        <v>23.33902631219738</v>
-      </c>
-      <c r="X53">
-        <f t="shared" si="2"/>
         <v>74.06040041969294</v>
       </c>
       <c r="Y53">
@@ -5751,23 +5934,23 @@
         <v>71.3</v>
       </c>
       <c r="T54">
-        <f t="shared" si="3"/>
+        <f>(B54*$AA$4+E54*$AB$4+H54*$AC$4+K54*$AD$4+N54*$AE$4+Q54*$AF$4)</f>
         <v>24.73862548063919</v>
       </c>
       <c r="U54">
-        <f t="shared" si="3"/>
+        <f>(C54*$AA$4+F54*$AB$4+I54*$AC$4+L54*$AD$4+O54*$AE$4+R54*$AF$4)</f>
         <v>2.7401026488133517</v>
       </c>
       <c r="V54">
-        <f t="shared" si="3"/>
+        <f>(D54*$AA$4+G54*$AB$4+J54*$AC$4+M54*$AD$4+P54*$AE$4+S54*$AF$4)</f>
         <v>83.141793897054413</v>
       </c>
       <c r="W54">
+        <f t="shared" si="0"/>
+        <v>23.744758336532225</v>
+      </c>
+      <c r="X54">
         <f t="shared" si="1"/>
-        <v>23.744758336532225</v>
-      </c>
-      <c r="X54">
-        <f t="shared" si="2"/>
         <v>74.811465752015408</v>
       </c>
       <c r="Y54">
@@ -5836,23 +6019,23 @@
         <v>69.900000000000006</v>
       </c>
       <c r="T55">
-        <f t="shared" si="3"/>
+        <f>(B55*$AA$4+E55*$AB$4+H55*$AC$4+K55*$AD$4+N55*$AE$4+Q55*$AF$4)</f>
         <v>25.142866215254912</v>
       </c>
       <c r="U55">
-        <f t="shared" si="3"/>
+        <f>(C55*$AA$4+F55*$AB$4+I55*$AC$4+L55*$AD$4+O55*$AE$4+R55*$AF$4)</f>
         <v>2.382945613985874</v>
       </c>
       <c r="V55">
-        <f t="shared" si="3"/>
+        <f>(D55*$AA$4+G55*$AB$4+J55*$AC$4+M55*$AD$4+P55*$AE$4+S55*$AF$4)</f>
         <v>79.942853691358422</v>
       </c>
       <c r="W55">
+        <f t="shared" si="0"/>
+        <v>23.927975482408698</v>
+      </c>
+      <c r="X55">
         <f t="shared" si="1"/>
-        <v>23.927975482408698</v>
-      </c>
-      <c r="X55">
-        <f t="shared" si="2"/>
         <v>75.132819061244703</v>
       </c>
       <c r="Y55">
@@ -5921,23 +6104,23 @@
         <v>81.400000000000006</v>
       </c>
       <c r="T56">
-        <f t="shared" si="3"/>
+        <f>(B56*$AA$4+E56*$AB$4+H56*$AC$4+K56*$AD$4+N56*$AE$4+Q56*$AF$4)</f>
         <v>25.020028853024129</v>
       </c>
       <c r="U56">
-        <f t="shared" si="3"/>
+        <f>(C56*$AA$4+F56*$AB$4+I56*$AC$4+L56*$AD$4+O56*$AE$4+R56*$AF$4)</f>
         <v>1.4364471776012839</v>
       </c>
       <c r="V56">
-        <f t="shared" si="3"/>
+        <f>(D56*$AA$4+G56*$AB$4+J56*$AC$4+M56*$AD$4+P56*$AE$4+S56*$AF$4)</f>
         <v>82.945208853997386</v>
       </c>
       <c r="W56">
+        <f t="shared" si="0"/>
+        <v>23.995375032643089</v>
+      </c>
+      <c r="X56">
         <f t="shared" si="1"/>
-        <v>23.995375032643089</v>
-      </c>
-      <c r="X56">
-        <f t="shared" si="2"/>
         <v>75.250444540424468</v>
       </c>
       <c r="Y56">
@@ -6006,23 +6189,23 @@
         <v>98.4</v>
       </c>
       <c r="T57">
-        <f t="shared" si="3"/>
+        <f>(B57*$AA$4+E57*$AB$4+H57*$AC$4+K57*$AD$4+N57*$AE$4+Q57*$AF$4)</f>
         <v>24.889080363810415</v>
       </c>
       <c r="U57">
-        <f t="shared" si="3"/>
+        <f>(C57*$AA$4+F57*$AB$4+I57*$AC$4+L57*$AD$4+O57*$AE$4+R57*$AF$4)</f>
         <v>2.6919953400013763</v>
       </c>
       <c r="V57">
-        <f t="shared" si="3"/>
+        <f>(D57*$AA$4+G57*$AB$4+J57*$AC$4+M57*$AD$4+P57*$AE$4+S57*$AF$4)</f>
         <v>84.08182040427414</v>
       </c>
       <c r="W57">
+        <f t="shared" si="0"/>
+        <v>23.941052142825097</v>
+      </c>
+      <c r="X57">
         <f t="shared" si="1"/>
-        <v>23.941052142825097</v>
-      </c>
-      <c r="X57">
-        <f t="shared" si="2"/>
         <v>75.154374710132032</v>
       </c>
       <c r="Y57">
@@ -6091,23 +6274,23 @@
         <v>84.1</v>
       </c>
       <c r="T58">
-        <f t="shared" si="3"/>
+        <f>(B58*$AA$4+E58*$AB$4+H58*$AC$4+K58*$AD$4+N58*$AE$4+Q58*$AF$4)</f>
         <v>25.096797879976982</v>
       </c>
       <c r="U58">
-        <f t="shared" si="3"/>
+        <f>(C58*$AA$4+F58*$AB$4+I58*$AC$4+L58*$AD$4+O58*$AE$4+R58*$AF$4)</f>
         <v>2.3128351037701873</v>
       </c>
       <c r="V58">
-        <f t="shared" si="3"/>
+        <f>(D58*$AA$4+G58*$AB$4+J58*$AC$4+M58*$AD$4+P58*$AE$4+S58*$AF$4)</f>
         <v>79.230486449860308</v>
       </c>
       <c r="W58">
+        <f t="shared" si="0"/>
+        <v>23.842585287449374</v>
+      </c>
+      <c r="X58">
         <f t="shared" si="1"/>
-        <v>23.842585287449374</v>
-      </c>
-      <c r="X58">
-        <f t="shared" si="2"/>
         <v>74.983918613658886</v>
       </c>
       <c r="Y58">
@@ -6176,23 +6359,23 @@
         <v>79.400000000000006</v>
       </c>
       <c r="T59">
-        <f t="shared" si="3"/>
+        <f>(B59*$AA$4+E59*$AB$4+H59*$AC$4+K59*$AD$4+N59*$AE$4+Q59*$AF$4)</f>
         <v>23.794926883782352</v>
       </c>
       <c r="U59">
-        <f t="shared" si="3"/>
+        <f>(C59*$AA$4+F59*$AB$4+I59*$AC$4+L59*$AD$4+O59*$AE$4+R59*$AF$4)</f>
         <v>2.7163670228151657</v>
       </c>
       <c r="V59">
-        <f t="shared" si="3"/>
+        <f>(D59*$AA$4+G59*$AB$4+J59*$AC$4+M59*$AD$4+P59*$AE$4+S59*$AF$4)</f>
         <v>75.100058899284448</v>
       </c>
       <c r="W59">
+        <f t="shared" si="0"/>
+        <v>22.420955416202919</v>
+      </c>
+      <c r="X59">
         <f t="shared" si="1"/>
-        <v>22.420955416202919</v>
-      </c>
-      <c r="X59">
-        <f t="shared" si="2"/>
         <v>72.525886416980626</v>
       </c>
       <c r="Y59">
@@ -6261,23 +6444,23 @@
         <v>75.8</v>
       </c>
       <c r="T60">
-        <f t="shared" si="3"/>
+        <f>(B60*$AA$4+E60*$AB$4+H60*$AC$4+K60*$AD$4+N60*$AE$4+Q60*$AF$4)</f>
         <v>23.879412419444428</v>
       </c>
       <c r="U60">
-        <f t="shared" si="3"/>
+        <f>(C60*$AA$4+F60*$AB$4+I60*$AC$4+L60*$AD$4+O60*$AE$4+R60*$AF$4)</f>
         <v>2.2191408394421219</v>
       </c>
       <c r="V60">
-        <f t="shared" si="3"/>
+        <f>(D60*$AA$4+G60*$AB$4+J60*$AC$4+M60*$AD$4+P60*$AE$4+S60*$AF$4)</f>
         <v>73.598865168608384</v>
       </c>
       <c r="W60">
+        <f t="shared" si="0"/>
+        <v>22.413683464779453</v>
+      </c>
+      <c r="X60">
         <f t="shared" si="1"/>
-        <v>22.413683464779453</v>
-      </c>
-      <c r="X60">
-        <f t="shared" si="2"/>
         <v>72.51691312478539</v>
       </c>
       <c r="Y60">
@@ -6346,23 +6529,23 @@
         <v>77.900000000000006</v>
       </c>
       <c r="T61">
-        <f t="shared" si="3"/>
+        <f>(B61*$AA$4+E61*$AB$4+H61*$AC$4+K61*$AD$4+N61*$AE$4+Q61*$AF$4)</f>
         <v>23.885670319377386</v>
       </c>
       <c r="U61">
-        <f t="shared" si="3"/>
+        <f>(C61*$AA$4+F61*$AB$4+I61*$AC$4+L61*$AD$4+O61*$AE$4+R61*$AF$4)</f>
         <v>2.0648781649007124</v>
       </c>
       <c r="V61">
-        <f t="shared" si="3"/>
+        <f>(D61*$AA$4+G61*$AB$4+J61*$AC$4+M61*$AD$4+P61*$AE$4+S61*$AF$4)</f>
         <v>76.932119958779296</v>
       </c>
       <c r="W61">
+        <f t="shared" si="0"/>
+        <v>22.604418410500042</v>
+      </c>
+      <c r="X61">
         <f t="shared" si="1"/>
-        <v>22.604418410500042</v>
-      </c>
-      <c r="X61">
-        <f t="shared" si="2"/>
         <v>72.838094822221578</v>
       </c>
       <c r="Y61">
@@ -6431,23 +6614,23 @@
         <v>75.5</v>
       </c>
       <c r="T62">
-        <f t="shared" si="3"/>
+        <f>(B62*$AA$4+E62*$AB$4+H62*$AC$4+K62*$AD$4+N62*$AE$4+Q62*$AF$4)</f>
         <v>23.581185174682705</v>
       </c>
       <c r="U62">
-        <f t="shared" si="3"/>
+        <f>(C62*$AA$4+F62*$AB$4+I62*$AC$4+L62*$AD$4+O62*$AE$4+R62*$AF$4)</f>
         <v>2.0918398588302689</v>
       </c>
       <c r="V62">
-        <f t="shared" si="3"/>
+        <f>(D62*$AA$4+G62*$AB$4+J62*$AC$4+M62*$AD$4+P62*$AE$4+S62*$AF$4)</f>
         <v>75.323555725539592</v>
       </c>
       <c r="W62">
+        <f t="shared" si="0"/>
+        <v>22.240643738105963</v>
+      </c>
+      <c r="X62">
         <f t="shared" si="1"/>
-        <v>22.240643738105963</v>
-      </c>
-      <c r="X62">
-        <f t="shared" si="2"/>
         <v>72.21405680697768</v>
       </c>
       <c r="Y62">
@@ -6516,23 +6699,23 @@
         <v>75.5</v>
       </c>
       <c r="T63">
-        <f t="shared" si="3"/>
+        <f>(B63*$AA$4+E63*$AB$4+H63*$AC$4+K63*$AD$4+N63*$AE$4+Q63*$AF$4)</f>
         <v>23.176585572665338</v>
       </c>
       <c r="U63">
-        <f t="shared" si="3"/>
+        <f>(C63*$AA$4+F63*$AB$4+I63*$AC$4+L63*$AD$4+O63*$AE$4+R63*$AF$4)</f>
         <v>1.7378911181681393</v>
       </c>
       <c r="V63">
-        <f t="shared" si="3"/>
+        <f>(D63*$AA$4+G63*$AB$4+J63*$AC$4+M63*$AD$4+P63*$AE$4+S63*$AF$4)</f>
         <v>72.755788745989648</v>
       </c>
       <c r="W63">
+        <f t="shared" si="0"/>
+        <v>21.74064284887238</v>
+      </c>
+      <c r="X63">
         <f t="shared" si="1"/>
-        <v>21.74064284887238</v>
-      </c>
-      <c r="X63">
-        <f t="shared" si="2"/>
         <v>71.3626410845865</v>
       </c>
       <c r="Y63">
@@ -6601,23 +6784,23 @@
         <v>76.8</v>
       </c>
       <c r="T64">
-        <f t="shared" si="3"/>
+        <f>(B64*$AA$4+E64*$AB$4+H64*$AC$4+K64*$AD$4+N64*$AE$4+Q64*$AF$4)</f>
         <v>23.646031248831662</v>
       </c>
       <c r="U64">
-        <f t="shared" si="3"/>
+        <f>(C64*$AA$4+F64*$AB$4+I64*$AC$4+L64*$AD$4+O64*$AE$4+R64*$AF$4)</f>
         <v>1.9125786966302354</v>
       </c>
       <c r="V64">
-        <f t="shared" si="3"/>
+        <f>(D64*$AA$4+G64*$AB$4+J64*$AC$4+M64*$AD$4+P64*$AE$4+S64*$AF$4)</f>
         <v>74.949175675746247</v>
       </c>
       <c r="W64">
+        <f t="shared" si="0"/>
+        <v>22.278653922680625</v>
+      </c>
+      <c r="X64">
         <f t="shared" si="1"/>
-        <v>22.278653922680625</v>
-      </c>
-      <c r="X64">
-        <f t="shared" si="2"/>
         <v>72.280833635940354</v>
       </c>
       <c r="Y64">
@@ -6686,23 +6869,23 @@
         <v>83.4</v>
       </c>
       <c r="T65">
-        <f t="shared" si="3"/>
+        <f>(B65*$AA$4+E65*$AB$4+H65*$AC$4+K65*$AD$4+N65*$AE$4+Q65*$AF$4)</f>
         <v>22.676039784953144</v>
       </c>
       <c r="U65">
-        <f t="shared" si="3"/>
+        <f>(C65*$AA$4+F65*$AB$4+I65*$AC$4+L65*$AD$4+O65*$AE$4+R65*$AF$4)</f>
         <v>2.6872150981071683</v>
       </c>
       <c r="V65">
-        <f t="shared" si="3"/>
+        <f>(D65*$AA$4+G65*$AB$4+J65*$AC$4+M65*$AD$4+P65*$AE$4+S65*$AF$4)</f>
         <v>78.41006869056838</v>
       </c>
       <c r="W65">
+        <f t="shared" si="0"/>
+        <v>21.581340472022102</v>
+      </c>
+      <c r="X65">
         <f t="shared" si="1"/>
-        <v>21.581340472022102</v>
-      </c>
-      <c r="X65">
-        <f t="shared" si="2"/>
         <v>71.05744779102632</v>
       </c>
       <c r="Y65">
@@ -6771,23 +6954,23 @@
         <v>94.9</v>
       </c>
       <c r="T66">
-        <f t="shared" si="3"/>
+        <f>(B66*$AA$4+E66*$AB$4+H66*$AC$4+K66*$AD$4+N66*$AE$4+Q66*$AF$4)</f>
         <v>20.667893022632253</v>
       </c>
       <c r="U66">
-        <f t="shared" si="3"/>
+        <f>(C66*$AA$4+F66*$AB$4+I66*$AC$4+L66*$AD$4+O66*$AE$4+R66*$AF$4)</f>
         <v>3.3624371095900556</v>
       </c>
       <c r="V66">
-        <f t="shared" si="3"/>
+        <f>(D66*$AA$4+G66*$AB$4+J66*$AC$4+M66*$AD$4+P66*$AE$4+S66*$AF$4)</f>
         <v>97.008246195589138</v>
       </c>
       <c r="W66">
-        <f t="shared" ref="W66:W93" si="5">T66-0.4*(T66-10)*(1-V66/100)</f>
+        <f t="shared" ref="W66:W93" si="2">T66-0.4*(T66-10)*(1-V66/100)</f>
         <v>20.54023018449022</v>
       </c>
       <c r="X66">
-        <f t="shared" ref="X66:X93" si="6">1.8*T66-0.55*(1-V66/100)*(1.8*T66-26)+32</f>
+        <f t="shared" ref="X66:X93" si="3">1.8*T66-0.55*(1-V66/100)*(1.8*T66-26)+32</f>
         <v>69.017879083730605</v>
       </c>
       <c r="Y66">
@@ -6856,23 +7039,23 @@
         <v>73.3</v>
       </c>
       <c r="T67">
-        <f t="shared" ref="T67:V93" si="7">(B67*$AA$4+E67*$AB$4+H67*$AC$4+K67*$AD$4+N67*$AE$4+Q67*$AF$4)</f>
+        <f>(B67*$AA$4+E67*$AB$4+H67*$AC$4+K67*$AD$4+N67*$AE$4+Q67*$AF$4)</f>
         <v>22.974045435310078</v>
       </c>
       <c r="U67">
-        <f t="shared" si="7"/>
+        <f>(C67*$AA$4+F67*$AB$4+I67*$AC$4+L67*$AD$4+O67*$AE$4+R67*$AF$4)</f>
         <v>2.4974609995002921</v>
       </c>
       <c r="V67">
-        <f t="shared" si="7"/>
+        <f>(D67*$AA$4+G67*$AB$4+J67*$AC$4+M67*$AD$4+P67*$AE$4+S67*$AF$4)</f>
         <v>81.098147928291027</v>
       </c>
       <c r="W67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>21.993111484950628</v>
       </c>
       <c r="X67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>71.757151747573701</v>
       </c>
       <c r="Y67">
@@ -6941,23 +7124,23 @@
         <v>69.3</v>
       </c>
       <c r="T68">
-        <f t="shared" si="7"/>
+        <f>(B68*$AA$4+E68*$AB$4+H68*$AC$4+K68*$AD$4+N68*$AE$4+Q68*$AF$4)</f>
         <v>23.890547970382418</v>
       </c>
       <c r="U68">
-        <f t="shared" si="7"/>
+        <f>(C68*$AA$4+F68*$AB$4+I68*$AC$4+L68*$AD$4+O68*$AE$4+R68*$AF$4)</f>
         <v>1.9402153685031767</v>
       </c>
       <c r="V68">
-        <f t="shared" si="7"/>
+        <f>(D68*$AA$4+G68*$AB$4+J68*$AC$4+M68*$AD$4+P68*$AE$4+S68*$AF$4)</f>
         <v>78.071141282353651</v>
       </c>
       <c r="W68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>22.672132514569597</v>
       </c>
       <c r="X68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>72.952277877128068</v>
       </c>
       <c r="Y68">
@@ -7026,23 +7209,23 @@
         <v>80.400000000000006</v>
       </c>
       <c r="T69">
-        <f t="shared" si="7"/>
+        <f>(B69*$AA$4+E69*$AB$4+H69*$AC$4+K69*$AD$4+N69*$AE$4+Q69*$AF$4)</f>
         <v>24.152835495661854</v>
       </c>
       <c r="U69">
-        <f t="shared" si="7"/>
+        <f>(C69*$AA$4+F69*$AB$4+I69*$AC$4+L69*$AD$4+O69*$AE$4+R69*$AF$4)</f>
         <v>1.7332642269962246</v>
       </c>
       <c r="V69">
-        <f t="shared" si="7"/>
+        <f>(D69*$AA$4+G69*$AB$4+J69*$AC$4+M69*$AD$4+P69*$AE$4+S69*$AF$4)</f>
         <v>74.778877893996352</v>
       </c>
       <c r="W69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>22.725033926932774</v>
       </c>
       <c r="X69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>73.051024382251029</v>
       </c>
       <c r="Y69">
@@ -7111,23 +7294,23 @@
         <v>81.3</v>
       </c>
       <c r="T70">
-        <f t="shared" si="7"/>
+        <f>(B70*$AA$4+E70*$AB$4+H70*$AC$4+K70*$AD$4+N70*$AE$4+Q70*$AF$4)</f>
         <v>24.574453802141754</v>
       </c>
       <c r="U70">
-        <f t="shared" si="7"/>
+        <f>(C70*$AA$4+F70*$AB$4+I70*$AC$4+L70*$AD$4+O70*$AE$4+R70*$AF$4)</f>
         <v>1.6247173238716144</v>
       </c>
       <c r="V70">
-        <f t="shared" si="7"/>
+        <f>(D70*$AA$4+G70*$AB$4+J70*$AC$4+M70*$AD$4+P70*$AE$4+S70*$AF$4)</f>
         <v>77.051800564296272</v>
       </c>
       <c r="W70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>23.236623912069756</v>
       </c>
       <c r="X70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>73.932608641097929</v>
       </c>
       <c r="Y70">
@@ -7196,23 +7379,23 @@
         <v>72.8</v>
       </c>
       <c r="T71">
-        <f t="shared" si="7"/>
+        <f>(B71*$AA$4+E71*$AB$4+H71*$AC$4+K71*$AD$4+N71*$AE$4+Q71*$AF$4)</f>
         <v>24.547062986834703</v>
       </c>
       <c r="U71">
-        <f t="shared" si="7"/>
+        <f>(C71*$AA$4+F71*$AB$4+I71*$AC$4+L71*$AD$4+O71*$AE$4+R71*$AF$4)</f>
         <v>2.1717846085748578</v>
       </c>
       <c r="V71">
-        <f t="shared" si="7"/>
+        <f>(D71*$AA$4+G71*$AB$4+J71*$AC$4+M71*$AD$4+P71*$AE$4+S71*$AF$4)</f>
         <v>78.018417360283337</v>
       </c>
       <c r="W71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>23.267993117993619</v>
       </c>
       <c r="X71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>73.986205087068328</v>
       </c>
       <c r="Y71">
@@ -7281,23 +7464,23 @@
         <v>69.900000000000006</v>
       </c>
       <c r="T72">
-        <f t="shared" si="7"/>
+        <f>(B72*$AA$4+E72*$AB$4+H72*$AC$4+K72*$AD$4+N72*$AE$4+Q72*$AF$4)</f>
         <v>23.480488684289803</v>
       </c>
       <c r="U72">
-        <f t="shared" si="7"/>
+        <f>(C72*$AA$4+F72*$AB$4+I72*$AC$4+L72*$AD$4+O72*$AE$4+R72*$AF$4)</f>
         <v>1.9813383867640808</v>
       </c>
       <c r="V72">
-        <f t="shared" si="7"/>
+        <f>(D72*$AA$4+G72*$AB$4+J72*$AC$4+M72*$AD$4+P72*$AE$4+S72*$AF$4)</f>
         <v>70.793591827173188</v>
       </c>
       <c r="W72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>21.905622064759637</v>
       </c>
       <c r="X72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>71.652166707988869</v>
       </c>
       <c r="Y72">
@@ -7366,23 +7549,23 @@
         <v>72.400000000000006</v>
       </c>
       <c r="T73">
-        <f t="shared" si="7"/>
+        <f>(B73*$AA$4+E73*$AB$4+H73*$AC$4+K73*$AD$4+N73*$AE$4+Q73*$AF$4)</f>
         <v>22.691160726280629</v>
       </c>
       <c r="U73">
-        <f t="shared" si="7"/>
+        <f>(C73*$AA$4+F73*$AB$4+I73*$AC$4+L73*$AD$4+O73*$AE$4+R73*$AF$4)</f>
         <v>1.8184342559902005</v>
       </c>
       <c r="V73">
-        <f t="shared" si="7"/>
+        <f>(D73*$AA$4+G73*$AB$4+J73*$AC$4+M73*$AD$4+P73*$AE$4+S73*$AF$4)</f>
         <v>65.934555847404965</v>
       </c>
       <c r="W73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20.961840618469747</v>
       </c>
       <c r="X73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>70.062901583187383</v>
       </c>
       <c r="Y73">
@@ -7451,23 +7634,23 @@
         <v>72.099999999999994</v>
       </c>
       <c r="T74">
-        <f t="shared" si="7"/>
+        <f>(B74*$AA$4+E74*$AB$4+H74*$AC$4+K74*$AD$4+N74*$AE$4+Q74*$AF$4)</f>
         <v>23.091809325478184</v>
       </c>
       <c r="U74">
-        <f t="shared" si="7"/>
+        <f>(C74*$AA$4+F74*$AB$4+I74*$AC$4+L74*$AD$4+O74*$AE$4+R74*$AF$4)</f>
         <v>2.0232025008234116</v>
       </c>
       <c r="V74">
-        <f t="shared" si="7"/>
+        <f>(D74*$AA$4+G74*$AB$4+J74*$AC$4+M74*$AD$4+P74*$AE$4+S74*$AF$4)</f>
         <v>67.788313665655309</v>
       </c>
       <c r="W74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>21.404972303312775</v>
       </c>
       <c r="X74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>70.80764935471251</v>
       </c>
       <c r="Y74">
@@ -7536,23 +7719,23 @@
         <v>75.8</v>
       </c>
       <c r="T75">
-        <f t="shared" si="7"/>
+        <f>(B75*$AA$4+E75*$AB$4+H75*$AC$4+K75*$AD$4+N75*$AE$4+Q75*$AF$4)</f>
         <v>21.700651575355984</v>
       </c>
       <c r="U75">
-        <f t="shared" si="7"/>
+        <f>(C75*$AA$4+F75*$AB$4+I75*$AC$4+L75*$AD$4+O75*$AE$4+R75*$AF$4)</f>
         <v>1.9108256237813175</v>
       </c>
       <c r="V75">
-        <f t="shared" si="7"/>
+        <f>(D75*$AA$4+G75*$AB$4+J75*$AC$4+M75*$AD$4+P75*$AE$4+S75*$AF$4)</f>
         <v>76.728824200678488</v>
       </c>
       <c r="W75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20.611499896249114</v>
       </c>
       <c r="X75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>69.389454165021419</v>
       </c>
       <c r="Y75">
@@ -7621,23 +7804,23 @@
         <v>70</v>
       </c>
       <c r="T76">
-        <f t="shared" si="7"/>
+        <f>(B76*$AA$4+E76*$AB$4+H76*$AC$4+K76*$AD$4+N76*$AE$4+Q76*$AF$4)</f>
         <v>22.841751140194486</v>
       </c>
       <c r="U76">
-        <f t="shared" si="7"/>
+        <f>(C76*$AA$4+F76*$AB$4+I76*$AC$4+L76*$AD$4+O76*$AE$4+R76*$AF$4)</f>
         <v>2.5279002744766732</v>
       </c>
       <c r="V76">
-        <f t="shared" si="7"/>
+        <f>(D76*$AA$4+G76*$AB$4+J76*$AC$4+M76*$AD$4+P76*$AE$4+S76*$AF$4)</f>
         <v>66.783797465394414</v>
       </c>
       <c r="W76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>21.135534313107676</v>
       </c>
       <c r="X76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>70.353778316832873</v>
       </c>
       <c r="Y76">
@@ -7706,23 +7889,23 @@
         <v>73.400000000000006</v>
       </c>
       <c r="T77">
-        <f t="shared" si="7"/>
+        <f>(B77*$AA$4+E77*$AB$4+H77*$AC$4+K77*$AD$4+N77*$AE$4+Q77*$AF$4)</f>
         <v>22.553012923690694</v>
       </c>
       <c r="U77">
-        <f t="shared" si="7"/>
+        <f>(C77*$AA$4+F77*$AB$4+I77*$AC$4+L77*$AD$4+O77*$AE$4+R77*$AF$4)</f>
         <v>2.315680329713989</v>
       </c>
       <c r="V77">
-        <f t="shared" si="7"/>
+        <f>(D77*$AA$4+G77*$AB$4+J77*$AC$4+M77*$AD$4+P77*$AE$4+S77*$AF$4)</f>
         <v>67.159271858809205</v>
       </c>
       <c r="W77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20.904012584571571</v>
       </c>
       <c r="X77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>69.959139461535813</v>
       </c>
       <c r="Y77">
@@ -7791,23 +7974,23 @@
         <v>68.900000000000006</v>
       </c>
       <c r="T78">
-        <f t="shared" si="7"/>
+        <f>(B78*$AA$4+E78*$AB$4+H78*$AC$4+K78*$AD$4+N78*$AE$4+Q78*$AF$4)</f>
         <v>22.892769672649841</v>
       </c>
       <c r="U78">
-        <f t="shared" si="7"/>
+        <f>(C78*$AA$4+F78*$AB$4+I78*$AC$4+L78*$AD$4+O78*$AE$4+R78*$AF$4)</f>
         <v>1.9195529449572903</v>
       </c>
       <c r="V78">
-        <f t="shared" si="7"/>
+        <f>(D78*$AA$4+G78*$AB$4+J78*$AC$4+M78*$AD$4+P78*$AE$4+S78*$AF$4)</f>
         <v>69.984737515535301</v>
       </c>
       <c r="W78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>21.344850209144518</v>
       </c>
       <c r="X78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>70.696556287910482</v>
       </c>
       <c r="Y78">
@@ -7876,23 +8059,23 @@
         <v>66.900000000000006</v>
       </c>
       <c r="T79">
-        <f t="shared" si="7"/>
+        <f>(B79*$AA$4+E79*$AB$4+H79*$AC$4+K79*$AD$4+N79*$AE$4+Q79*$AF$4)</f>
         <v>21.985593475336451</v>
       </c>
       <c r="U79">
-        <f t="shared" si="7"/>
+        <f>(C79*$AA$4+F79*$AB$4+I79*$AC$4+L79*$AD$4+O79*$AE$4+R79*$AF$4)</f>
         <v>2.2107874882854199</v>
       </c>
       <c r="V79">
-        <f t="shared" si="7"/>
+        <f>(D79*$AA$4+G79*$AB$4+J79*$AC$4+M79*$AD$4+P79*$AE$4+S79*$AF$4)</f>
         <v>55.146097777988103</v>
       </c>
       <c r="W79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.83519092407435</v>
       </c>
       <c r="X79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>68.22539363900043</v>
       </c>
       <c r="Y79">
@@ -7961,23 +8144,23 @@
         <v>79.3</v>
       </c>
       <c r="T80">
-        <f t="shared" si="7"/>
+        <f>(B80*$AA$4+E80*$AB$4+H80*$AC$4+K80*$AD$4+N80*$AE$4+Q80*$AF$4)</f>
         <v>20.624718174202595</v>
       </c>
       <c r="U80">
-        <f t="shared" si="7"/>
+        <f>(C80*$AA$4+F80*$AB$4+I80*$AC$4+L80*$AD$4+O80*$AE$4+R80*$AF$4)</f>
         <v>1.6680173003534928</v>
       </c>
       <c r="V80">
-        <f t="shared" si="7"/>
+        <f>(D80*$AA$4+G80*$AB$4+J80*$AC$4+M80*$AD$4+P80*$AE$4+S80*$AF$4)</f>
         <v>63.595178017945955</v>
       </c>
       <c r="W80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.077554279237237</v>
       </c>
       <c r="X80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>66.897074240735776</v>
       </c>
       <c r="Y80">
@@ -8046,23 +8229,23 @@
         <v>68.900000000000006</v>
       </c>
       <c r="T81">
-        <f t="shared" si="7"/>
+        <f>(B81*$AA$4+E81*$AB$4+H81*$AC$4+K81*$AD$4+N81*$AE$4+Q81*$AF$4)</f>
         <v>20.575818629577942</v>
       </c>
       <c r="U81">
-        <f t="shared" si="7"/>
+        <f>(C81*$AA$4+F81*$AB$4+I81*$AC$4+L81*$AD$4+O81*$AE$4+R81*$AF$4)</f>
         <v>2.1548525593090839</v>
       </c>
       <c r="V81">
-        <f t="shared" si="7"/>
+        <f>(D81*$AA$4+G81*$AB$4+J81*$AC$4+M81*$AD$4+P81*$AE$4+S81*$AF$4)</f>
         <v>64.940720612988827</v>
       </c>
       <c r="W81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.092696309255018</v>
       </c>
       <c r="X81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>66.908354083469561</v>
       </c>
       <c r="Y81">
@@ -8131,23 +8314,23 @@
         <v>80.5</v>
       </c>
       <c r="T82">
-        <f t="shared" si="7"/>
+        <f>(B82*$AA$4+E82*$AB$4+H82*$AC$4+K82*$AD$4+N82*$AE$4+Q82*$AF$4)</f>
         <v>20.702151129417462</v>
       </c>
       <c r="U82">
-        <f t="shared" si="7"/>
+        <f>(C82*$AA$4+F82*$AB$4+I82*$AC$4+L82*$AD$4+O82*$AE$4+R82*$AF$4)</f>
         <v>1.8178573156631477</v>
       </c>
       <c r="V82">
-        <f t="shared" si="7"/>
+        <f>(D82*$AA$4+G82*$AB$4+J82*$AC$4+M82*$AD$4+P82*$AE$4+S82*$AF$4)</f>
         <v>63.365730062522893</v>
       </c>
       <c r="W82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.133889155870442</v>
       </c>
       <c r="X82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>66.994331525671555</v>
       </c>
       <c r="Y82">
@@ -8216,23 +8399,23 @@
         <v>68.3</v>
       </c>
       <c r="T83">
-        <f t="shared" si="7"/>
+        <f>(B83*$AA$4+E83*$AB$4+H83*$AC$4+K83*$AD$4+N83*$AE$4+Q83*$AF$4)</f>
         <v>21.193446762556583</v>
       </c>
       <c r="U83">
-        <f t="shared" si="7"/>
+        <f>(C83*$AA$4+F83*$AB$4+I83*$AC$4+L83*$AD$4+O83*$AE$4+R83*$AF$4)</f>
         <v>2.0903947259514961</v>
       </c>
       <c r="V83">
-        <f t="shared" si="7"/>
+        <f>(D83*$AA$4+G83*$AB$4+J83*$AC$4+M83*$AD$4+P83*$AE$4+S83*$AF$4)</f>
         <v>60.358417437922256</v>
       </c>
       <c r="W83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.41854298658815</v>
       </c>
       <c r="X83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>67.499546959811397</v>
       </c>
       <c r="Y83">
@@ -8301,23 +8484,23 @@
         <v>69.099999999999994</v>
       </c>
       <c r="T84">
-        <f t="shared" si="7"/>
+        <f>(B84*$AA$4+E84*$AB$4+H84*$AC$4+K84*$AD$4+N84*$AE$4+Q84*$AF$4)</f>
         <v>20.706941579904793</v>
       </c>
       <c r="U84">
-        <f t="shared" si="7"/>
+        <f>(C84*$AA$4+F84*$AB$4+I84*$AC$4+L84*$AD$4+O84*$AE$4+R84*$AF$4)</f>
         <v>1.7046713579365202</v>
       </c>
       <c r="V84">
-        <f t="shared" si="7"/>
+        <f>(D84*$AA$4+G84*$AB$4+J84*$AC$4+M84*$AD$4+P84*$AE$4+S84*$AF$4)</f>
         <v>65.361905930009542</v>
       </c>
       <c r="W84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.223469381318257</v>
       </c>
       <c r="X84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>67.124977291406537</v>
       </c>
       <c r="Y84">
@@ -8386,23 +8569,23 @@
         <v>72.5</v>
       </c>
       <c r="T85">
-        <f t="shared" si="7"/>
+        <f>(B85*$AA$4+E85*$AB$4+H85*$AC$4+K85*$AD$4+N85*$AE$4+Q85*$AF$4)</f>
         <v>21.677155012518579</v>
       </c>
       <c r="U85">
-        <f t="shared" si="7"/>
+        <f>(C85*$AA$4+F85*$AB$4+I85*$AC$4+L85*$AD$4+O85*$AE$4+R85*$AF$4)</f>
         <v>2.1007736486865878</v>
       </c>
       <c r="V85">
-        <f t="shared" si="7"/>
+        <f>(D85*$AA$4+G85*$AB$4+J85*$AC$4+M85*$AD$4+P85*$AE$4+S85*$AF$4)</f>
         <v>62.792587503101515</v>
       </c>
       <c r="W85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.939248119154563</v>
       </c>
       <c r="X85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>68.354685611321031</v>
       </c>
       <c r="Y85">
@@ -8471,23 +8654,23 @@
         <v>77.8</v>
       </c>
       <c r="T86">
-        <f t="shared" si="7"/>
+        <f>(B86*$AA$4+E86*$AB$4+H86*$AC$4+K86*$AD$4+N86*$AE$4+Q86*$AF$4)</f>
         <v>22.403336144200978</v>
       </c>
       <c r="U86">
-        <f t="shared" si="7"/>
+        <f>(C86*$AA$4+F86*$AB$4+I86*$AC$4+L86*$AD$4+O86*$AE$4+R86*$AF$4)</f>
         <v>2.5405951937906615</v>
       </c>
       <c r="V86">
-        <f t="shared" si="7"/>
+        <f>(D86*$AA$4+G86*$AB$4+J86*$AC$4+M86*$AD$4+P86*$AE$4+S86*$AF$4)</f>
         <v>62.68697323902115</v>
       </c>
       <c r="W86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20.552112090305027</v>
       </c>
       <c r="X86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>69.385998703652348</v>
       </c>
       <c r="Y86">
@@ -8556,23 +8739,23 @@
         <v>97.9</v>
       </c>
       <c r="T87">
-        <f t="shared" si="7"/>
+        <f>(B87*$AA$4+E87*$AB$4+H87*$AC$4+K87*$AD$4+N87*$AE$4+Q87*$AF$4)</f>
         <v>20.216094371580681</v>
       </c>
       <c r="U87">
-        <f t="shared" si="7"/>
+        <f>(C87*$AA$4+F87*$AB$4+I87*$AC$4+L87*$AD$4+O87*$AE$4+R87*$AF$4)</f>
         <v>2.7133838168058029</v>
       </c>
       <c r="V87">
-        <f t="shared" si="7"/>
+        <f>(D87*$AA$4+G87*$AB$4+J87*$AC$4+M87*$AD$4+P87*$AE$4+S87*$AF$4)</f>
         <v>86.927158822833221</v>
       </c>
       <c r="W87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.681880854898193</v>
       </c>
       <c r="X87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>67.641996426851421</v>
       </c>
       <c r="Y87">
@@ -8641,23 +8824,23 @@
         <v>78</v>
       </c>
       <c r="T88">
-        <f t="shared" si="7"/>
+        <f>(B88*$AA$4+E88*$AB$4+H88*$AC$4+K88*$AD$4+N88*$AE$4+Q88*$AF$4)</f>
         <v>21.739080916063415</v>
       </c>
       <c r="U88">
-        <f t="shared" si="7"/>
+        <f>(C88*$AA$4+F88*$AB$4+I88*$AC$4+L88*$AD$4+O88*$AE$4+R88*$AF$4)</f>
         <v>1.7568237374329514</v>
       </c>
       <c r="V88">
-        <f t="shared" si="7"/>
+        <f>(D88*$AA$4+G88*$AB$4+J88*$AC$4+M88*$AD$4+P88*$AE$4+S88*$AF$4)</f>
         <v>74.24296987707126</v>
       </c>
       <c r="W88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20.529625472981241</v>
       </c>
       <c r="X88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>69.270252752694631</v>
       </c>
       <c r="Y88">
@@ -8726,23 +8909,23 @@
         <v>72.3</v>
       </c>
       <c r="T89">
-        <f t="shared" si="7"/>
+        <f>(B89*$AA$4+E89*$AB$4+H89*$AC$4+K89*$AD$4+N89*$AE$4+Q89*$AF$4)</f>
         <v>20.881158407742301</v>
       </c>
       <c r="U89">
-        <f t="shared" si="7"/>
+        <f>(C89*$AA$4+F89*$AB$4+I89*$AC$4+L89*$AD$4+O89*$AE$4+R89*$AF$4)</f>
         <v>2.5210992857081131</v>
       </c>
       <c r="V89">
-        <f t="shared" si="7"/>
+        <f>(D89*$AA$4+G89*$AB$4+J89*$AC$4+M89*$AD$4+P89*$AE$4+S89*$AF$4)</f>
         <v>78.005145685496871</v>
       </c>
       <c r="W89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.923840431937009</v>
       </c>
       <c r="X89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>68.184496733656189</v>
       </c>
       <c r="Y89">
@@ -8811,23 +8994,23 @@
         <v>75.8</v>
       </c>
       <c r="T90">
-        <f t="shared" si="7"/>
+        <f>(B90*$AA$4+E90*$AB$4+H90*$AC$4+K90*$AD$4+N90*$AE$4+Q90*$AF$4)</f>
         <v>21.221819696281184</v>
       </c>
       <c r="U90">
-        <f t="shared" si="7"/>
+        <f>(C90*$AA$4+F90*$AB$4+I90*$AC$4+L90*$AD$4+O90*$AE$4+R90*$AF$4)</f>
         <v>2.1484021241083018</v>
       </c>
       <c r="V90">
-        <f t="shared" si="7"/>
+        <f>(D90*$AA$4+G90*$AB$4+J90*$AC$4+M90*$AD$4+P90*$AE$4+S90*$AF$4)</f>
         <v>79.803359334205624</v>
       </c>
       <c r="W90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20.315247456192683</v>
       </c>
       <c r="X90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>68.844161348382045</v>
       </c>
       <c r="Y90">
@@ -8896,23 +9079,23 @@
         <v>76.599999999999994</v>
       </c>
       <c r="T91">
-        <f t="shared" si="7"/>
+        <f>(B91*$AA$4+E91*$AB$4+H91*$AC$4+K91*$AD$4+N91*$AE$4+Q91*$AF$4)</f>
         <v>21.814985581575321</v>
       </c>
       <c r="U91">
-        <f t="shared" si="7"/>
+        <f>(C91*$AA$4+F91*$AB$4+I91*$AC$4+L91*$AD$4+O91*$AE$4+R91*$AF$4)</f>
         <v>1.4458907593654371</v>
       </c>
       <c r="V91">
-        <f t="shared" si="7"/>
+        <f>(D91*$AA$4+G91*$AB$4+J91*$AC$4+M91*$AD$4+P91*$AE$4+S91*$AF$4)</f>
         <v>82.753663242035685</v>
       </c>
       <c r="W91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20.999924701053956</v>
       </c>
       <c r="X91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>70.00853718489563</v>
       </c>
       <c r="Y91">
@@ -8981,23 +9164,23 @@
         <v>90</v>
       </c>
       <c r="T92">
-        <f t="shared" si="7"/>
+        <f>(B92*$AA$4+E92*$AB$4+H92*$AC$4+K92*$AD$4+N92*$AE$4+Q92*$AF$4)</f>
         <v>20.099384586817475</v>
       </c>
       <c r="U92">
-        <f t="shared" si="7"/>
+        <f>(C92*$AA$4+F92*$AB$4+I92*$AC$4+L92*$AD$4+O92*$AE$4+R92*$AF$4)</f>
         <v>1.483850657294294</v>
       </c>
       <c r="V92">
-        <f t="shared" si="7"/>
+        <f>(D92*$AA$4+G92*$AB$4+J92*$AC$4+M92*$AD$4+P92*$AE$4+S92*$AF$4)</f>
         <v>93.357170492239504</v>
       </c>
       <c r="W92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.831030627043344</v>
       </c>
       <c r="X92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>67.807000704171941</v>
       </c>
       <c r="Y92">
@@ -9066,23 +9249,23 @@
         <v>85.1</v>
       </c>
       <c r="T93">
-        <f t="shared" si="7"/>
+        <f>(B93*$AA$4+E93*$AB$4+H93*$AC$4+K93*$AD$4+N93*$AE$4+Q93*$AF$4)</f>
         <v>19.179394798183417</v>
       </c>
       <c r="U93">
-        <f t="shared" si="7"/>
+        <f>(C93*$AA$4+F93*$AB$4+I93*$AC$4+L93*$AD$4+O93*$AE$4+R93*$AF$4)</f>
         <v>2.9185812523369661</v>
       </c>
       <c r="V93">
-        <f t="shared" si="7"/>
+        <f>(D93*$AA$4+G93*$AB$4+J93*$AC$4+M93*$AD$4+P93*$AE$4+S93*$AF$4)</f>
         <v>77.585945664867083</v>
       </c>
       <c r="W93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>18.356404983102937</v>
       </c>
       <c r="X93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>65.472229235151815</v>
       </c>
       <c r="Y93">
@@ -13790,6 +13973,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13797,8 +13981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE7BFF9-1725-4DFF-88A8-EE4271863EB0}">
   <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
